--- a/raw_data/TON-USD_4h_process.xlsx
+++ b/raw_data/TON-USD_4h_process.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="196">
   <si>
     <t>Open</t>
   </si>
@@ -58,129 +58,6 @@
     <t>sell_rsi_9</t>
   </si>
   <si>
-    <t>2023-12-27 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-27 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 09:00:00-03:00</t>
-  </si>
-  <si>
     <t>2024-01-03 13:00:00-03:00</t>
   </si>
   <si>
@@ -599,6 +476,129 @@
   </si>
   <si>
     <t>2024-01-26 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-26 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 13:00:00-03:00</t>
   </si>
   <si>
     <t>yes</t>
@@ -1014,19 +1014,19 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>2.218545198440552</v>
+        <v>2.199130296707153</v>
       </c>
       <c r="C2">
-        <v>2.224427223205566</v>
+        <v>2.261209011077881</v>
       </c>
       <c r="D2">
-        <v>2.214159488677979</v>
+        <v>2.163954734802246</v>
       </c>
       <c r="E2">
-        <v>2.216944456100464</v>
+        <v>2.172943592071533</v>
       </c>
       <c r="F2">
-        <v>232961</v>
+        <v>32869</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1034,19 +1034,19 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>2.217065572738647</v>
+        <v>2.173632621765137</v>
       </c>
       <c r="C3">
-        <v>2.228828907012939</v>
+        <v>2.289437532424927</v>
       </c>
       <c r="D3">
-        <v>2.187007188796997</v>
+        <v>2.168294668197632</v>
       </c>
       <c r="E3">
-        <v>2.193064212799072</v>
+        <v>2.283415079116821</v>
       </c>
       <c r="F3">
-        <v>152047</v>
+        <v>112444</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1054,19 +1054,19 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <v>2.193439960479736</v>
+        <v>2.284970283508301</v>
       </c>
       <c r="C4">
-        <v>2.195923566818237</v>
+        <v>2.295320272445679</v>
       </c>
       <c r="D4">
-        <v>2.164361476898193</v>
+        <v>2.127667903900146</v>
       </c>
       <c r="E4">
-        <v>2.17435622215271</v>
+        <v>2.168306589126587</v>
       </c>
       <c r="F4">
-        <v>340983</v>
+        <v>50494</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1074,19 +1074,19 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <v>2.175000905990601</v>
+        <v>2.163717269897461</v>
       </c>
       <c r="C5">
-        <v>2.192668914794922</v>
+        <v>2.253609657287598</v>
       </c>
       <c r="D5">
-        <v>2.174586296081543</v>
+        <v>2.144452333450317</v>
       </c>
       <c r="E5">
-        <v>2.188581228256226</v>
+        <v>2.144452333450317</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>76868</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1094,19 +1094,19 @@
         <v>18</v>
       </c>
       <c r="B6">
-        <v>2.187329530715942</v>
+        <v>2.148950099945068</v>
       </c>
       <c r="C6">
-        <v>2.192912817001343</v>
+        <v>2.158941268920898</v>
       </c>
       <c r="D6">
-        <v>2.171591520309448</v>
+        <v>2.137545347213745</v>
       </c>
       <c r="E6">
-        <v>2.177480936050415</v>
+        <v>2.149436950683594</v>
       </c>
       <c r="F6">
-        <v>24257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1114,19 +1114,19 @@
         <v>19</v>
       </c>
       <c r="B7">
-        <v>2.181721687316895</v>
+        <v>2.145262718200684</v>
       </c>
       <c r="C7">
-        <v>2.189162254333496</v>
+        <v>2.185905694961548</v>
       </c>
       <c r="D7">
-        <v>2.178735017776489</v>
+        <v>2.143704652786255</v>
       </c>
       <c r="E7">
-        <v>2.187185525894165</v>
+        <v>2.182074308395386</v>
       </c>
       <c r="F7">
-        <v>26482</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1134,19 +1134,19 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>2.187445163726806</v>
+        <v>2.181798934936523</v>
       </c>
       <c r="C8">
-        <v>2.187445163726806</v>
+        <v>2.186183214187622</v>
       </c>
       <c r="D8">
-        <v>2.17552137374878</v>
+        <v>2.165279865264893</v>
       </c>
       <c r="E8">
-        <v>2.176778793334961</v>
+        <v>2.170119524002075</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>19277</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1154,19 +1154,19 @@
         <v>21</v>
       </c>
       <c r="B9">
-        <v>2.176149845123291</v>
+        <v>2.170371770858765</v>
       </c>
       <c r="C9">
-        <v>2.230342864990234</v>
+        <v>2.185518026351929</v>
       </c>
       <c r="D9">
-        <v>2.169514656066895</v>
+        <v>2.14716649055481</v>
       </c>
       <c r="E9">
-        <v>2.225349187850952</v>
+        <v>2.14716649055481</v>
       </c>
       <c r="F9">
-        <v>1114088</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1174,19 +1174,19 @@
         <v>22</v>
       </c>
       <c r="B10">
-        <v>2.226701498031616</v>
+        <v>2.148336410522461</v>
       </c>
       <c r="C10">
-        <v>2.290068626403809</v>
+        <v>2.150192499160767</v>
       </c>
       <c r="D10">
-        <v>2.223508834838867</v>
+        <v>2.101781368255615</v>
       </c>
       <c r="E10">
-        <v>2.283160448074341</v>
+        <v>2.101781368255615</v>
       </c>
       <c r="F10">
-        <v>9404045</v>
+        <v>116504</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1194,22 +1194,22 @@
         <v>23</v>
       </c>
       <c r="B11">
-        <v>2.288868427276612</v>
+        <v>2.10276746749878</v>
       </c>
       <c r="C11">
-        <v>2.288868427276612</v>
+        <v>2.134786367416382</v>
       </c>
       <c r="D11">
-        <v>2.242947816848755</v>
+        <v>2.092970609664917</v>
       </c>
       <c r="E11">
-        <v>2.25395941734314</v>
+        <v>2.12462329864502</v>
       </c>
       <c r="F11">
-        <v>5079414</v>
+        <v>45650</v>
       </c>
       <c r="L11">
-        <v>63.08428248501463</v>
+        <v>40.81538189360662</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1217,22 +1217,22 @@
         <v>24</v>
       </c>
       <c r="B12">
-        <v>2.255058526992798</v>
+        <v>2.128767967224121</v>
       </c>
       <c r="C12">
-        <v>2.267351627349853</v>
+        <v>2.137346506118774</v>
       </c>
       <c r="D12">
-        <v>2.246176481246948</v>
+        <v>2.12082314491272</v>
       </c>
       <c r="E12">
-        <v>2.246176481246948</v>
+        <v>2.133285522460937</v>
       </c>
       <c r="F12">
-        <v>2224110</v>
+        <v>118742</v>
       </c>
       <c r="L12">
-        <v>59.86872422193201</v>
+        <v>43.34616396284387</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1240,22 +1240,22 @@
         <v>25</v>
       </c>
       <c r="B13">
-        <v>2.237940788269043</v>
+        <v>2.127353191375732</v>
       </c>
       <c r="C13">
-        <v>2.255900621414185</v>
+        <v>2.138742208480835</v>
       </c>
       <c r="D13">
-        <v>2.221025228500366</v>
+        <v>2.10220193862915</v>
       </c>
       <c r="E13">
-        <v>2.255900621414185</v>
+        <v>2.10220193862915</v>
       </c>
       <c r="F13">
-        <v>399768</v>
+        <v>40130</v>
       </c>
       <c r="L13">
-        <v>62.55176248381245</v>
+        <v>36.96511385994909</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1263,25 +1263,22 @@
         <v>26</v>
       </c>
       <c r="B14">
-        <v>2.257202625274658</v>
+        <v>2.107583045959473</v>
       </c>
       <c r="C14">
-        <v>2.461523056030273</v>
+        <v>2.111677646636963</v>
       </c>
       <c r="D14">
-        <v>2.237807989120483</v>
+        <v>2.079139471054077</v>
       </c>
       <c r="E14">
-        <v>2.461197853088379</v>
+        <v>2.096446514129639</v>
       </c>
       <c r="F14">
-        <v>658678</v>
+        <v>6871</v>
       </c>
       <c r="L14">
-        <v>85.52959360904488</v>
-      </c>
-      <c r="O14" t="s">
-        <v>195</v>
+        <v>35.86531090291604</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1289,22 +1286,22 @@
         <v>27</v>
       </c>
       <c r="B15">
-        <v>2.299762010574341</v>
+        <v>2.097591876983643</v>
       </c>
       <c r="C15">
-        <v>2.299762010574341</v>
+        <v>2.098750352859497</v>
       </c>
       <c r="D15">
-        <v>2.254620552062988</v>
+        <v>2.081893920898437</v>
       </c>
       <c r="E15">
-        <v>2.265523195266724</v>
+        <v>2.087188720703125</v>
       </c>
       <c r="F15">
-        <v>978390</v>
+        <v>3378</v>
       </c>
       <c r="L15">
-        <v>51.58808839196944</v>
+        <v>34.03297377716574</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1312,1636 +1309,1654 @@
         <v>28</v>
       </c>
       <c r="B16">
-        <v>2.265458822250366</v>
+        <v>2.092721700668335</v>
       </c>
       <c r="C16">
-        <v>2.460547685623169</v>
+        <v>2.349278926849365</v>
       </c>
       <c r="D16">
-        <v>2.258203506469727</v>
+        <v>2.092721700668335</v>
       </c>
       <c r="E16">
-        <v>2.453147411346436</v>
+        <v>2.316462278366089</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>43678105</v>
       </c>
       <c r="L16">
-        <v>66.0999202960314</v>
+        <v>72.77924648139542</v>
       </c>
       <c r="M16">
-        <v>65.6304867185455</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>68.22426757392032</v>
+      </c>
+      <c r="O16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B17">
-        <v>2.456165313720703</v>
+        <v>2.321397066116333</v>
       </c>
       <c r="C17">
-        <v>2.486269950866699</v>
+        <v>2.321397066116333</v>
       </c>
       <c r="D17">
-        <v>2.255647897720337</v>
+        <v>2.170656681060791</v>
       </c>
       <c r="E17">
-        <v>2.483716249465942</v>
+        <v>2.181149005889893</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>29082940</v>
       </c>
       <c r="L17">
-        <v>67.86548763116994</v>
+        <v>52.35993572244899</v>
       </c>
       <c r="M17">
-        <v>67.20614922851478</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>51.76869285634793</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B18">
-        <v>2.48620343208313</v>
+        <v>2.178072452545166</v>
       </c>
       <c r="C18">
-        <v>2.48620343208313</v>
+        <v>2.380627870559692</v>
       </c>
       <c r="D18">
-        <v>2.290431261062622</v>
+        <v>2.168911933898926</v>
       </c>
       <c r="E18">
-        <v>2.427057981491089</v>
+        <v>2.380627870559692</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>8269936</v>
       </c>
       <c r="L18">
-        <v>61.21741939254275</v>
+        <v>67.48806803350939</v>
       </c>
       <c r="M18">
-        <v>61.57183621157144</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>65.12373617196945</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B19">
-        <v>2.318533897399902</v>
+        <v>2.356767177581787</v>
       </c>
       <c r="C19">
-        <v>2.319164752960205</v>
+        <v>2.48975133895874</v>
       </c>
       <c r="D19">
-        <v>2.298900365829468</v>
+        <v>2.274642944335937</v>
       </c>
       <c r="E19">
-        <v>2.30567741394043</v>
+        <v>2.441776752471924</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>45801616</v>
       </c>
       <c r="L19">
-        <v>49.52489139284813</v>
+        <v>70.69705797934272</v>
       </c>
       <c r="M19">
-        <v>51.59274201863645</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>68.04475734311693</v>
+      </c>
+      <c r="O19" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B20">
-        <v>2.306437253952026</v>
+        <v>2.434340476989746</v>
       </c>
       <c r="C20">
-        <v>2.319850444793701</v>
+        <v>2.435766458511353</v>
       </c>
       <c r="D20">
-        <v>2.29692268371582</v>
+        <v>2.269863843917847</v>
       </c>
       <c r="E20">
-        <v>2.303396463394165</v>
+        <v>2.27179217338562</v>
       </c>
       <c r="F20">
-        <v>101834</v>
+        <v>5422968</v>
       </c>
       <c r="L20">
-        <v>49.32572041049497</v>
+        <v>54.02192926256389</v>
       </c>
       <c r="M20">
-        <v>51.42407626754875</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>54.40393003390492</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B21">
-        <v>2.300074815750122</v>
+        <v>2.275296688079834</v>
       </c>
       <c r="C21">
-        <v>2.332342147827148</v>
+        <v>2.443437099456787</v>
       </c>
       <c r="D21">
-        <v>2.246225595474243</v>
+        <v>2.266209363937378</v>
       </c>
       <c r="E21">
-        <v>2.252376556396484</v>
+        <v>2.438363075256348</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>4832928</v>
       </c>
       <c r="H21">
-        <v>2.276551532745361</v>
+        <v>2.204680669307709</v>
       </c>
       <c r="L21">
-        <v>44.79271501130332</v>
+        <v>63.51010296854294</v>
       </c>
       <c r="M21">
-        <v>47.6700894918084</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>62.36561760061882</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B22">
-        <v>2.251349925994873</v>
+        <v>2.436886787414551</v>
       </c>
       <c r="C22">
-        <v>2.254992485046387</v>
+        <v>2.436886787414551</v>
       </c>
       <c r="D22">
-        <v>2.223090887069702</v>
+        <v>2.269107580184937</v>
       </c>
       <c r="E22">
-        <v>2.241054773330688</v>
+        <v>2.391067266464233</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>2850448</v>
       </c>
       <c r="G22">
-        <v>2.274861210868472</v>
+        <v>2.213556221553258</v>
       </c>
       <c r="H22">
-        <v>2.277757048606873</v>
+        <v>2.215586853027344</v>
       </c>
       <c r="L22">
-        <v>43.78810695031687</v>
+        <v>59.58250791718196</v>
       </c>
       <c r="M22">
-        <v>46.85271542349163</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>59.20450008821498</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B23">
-        <v>2.245335578918457</v>
+        <v>2.389041423797607</v>
       </c>
       <c r="C23">
-        <v>2.245359182357788</v>
+        <v>2.408355951309204</v>
       </c>
       <c r="D23">
-        <v>2.222049236297607</v>
+        <v>2.278750896453857</v>
       </c>
       <c r="E23">
-        <v>2.222049236297607</v>
+        <v>2.285128355026245</v>
       </c>
       <c r="F23">
-        <v>3564</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>2.270060122271121</v>
+        <v>2.220062779141711</v>
       </c>
       <c r="H23">
-        <v>2.279206299781799</v>
+        <v>2.215672516822815</v>
       </c>
       <c r="L23">
-        <v>42.00881371216919</v>
+        <v>51.54925160787992</v>
       </c>
       <c r="M23">
-        <v>45.44406867995235</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>52.75433144427091</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B24">
-        <v>2.227628946304321</v>
+        <v>2.419384717941284</v>
       </c>
       <c r="C24">
-        <v>2.249426364898682</v>
+        <v>2.426909446716309</v>
       </c>
       <c r="D24">
-        <v>2.224583387374878</v>
+        <v>2.207969665527344</v>
       </c>
       <c r="E24">
-        <v>2.245901584625244</v>
+        <v>2.207969665527344</v>
       </c>
       <c r="F24">
-        <v>13682</v>
+        <v>2571112</v>
       </c>
       <c r="G24">
-        <v>2.267863891576041</v>
+        <v>2.218963405176769</v>
       </c>
       <c r="H24">
-        <v>2.282783567905426</v>
+        <v>2.217655670642853</v>
       </c>
       <c r="L24">
-        <v>45.15532534877575</v>
+        <v>46.42100137735034</v>
       </c>
       <c r="M24">
-        <v>47.5743965453113</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>48.60118513440692</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B25">
-        <v>2.244019269943237</v>
+        <v>2.21296215057373</v>
       </c>
       <c r="C25">
-        <v>2.257367849349976</v>
+        <v>2.232322692871094</v>
       </c>
       <c r="D25">
-        <v>2.243533849716187</v>
+        <v>2.192140102386475</v>
       </c>
       <c r="E25">
-        <v>2.253802537918091</v>
+        <v>2.197312116622925</v>
       </c>
       <c r="F25">
-        <v>20740</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>2.266585586698045</v>
+        <v>2.216995106217328</v>
       </c>
       <c r="H25">
-        <v>2.286044633388519</v>
+        <v>2.220298659801483</v>
       </c>
       <c r="L25">
-        <v>46.24227420769612</v>
+        <v>45.71431923932364</v>
       </c>
       <c r="M25">
-        <v>48.2946297855213</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>48.03862769185469</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B26">
-        <v>2.253849744796753</v>
+        <v>2.205390453338623</v>
       </c>
       <c r="C26">
-        <v>2.256462812423706</v>
+        <v>2.231671571731567</v>
       </c>
       <c r="D26">
-        <v>2.240593910217285</v>
+        <v>2.20412540435791</v>
       </c>
       <c r="E26">
-        <v>2.245429277420044</v>
+        <v>2.212424039840698</v>
       </c>
       <c r="F26">
-        <v>47142</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>2.264662285854591</v>
+        <v>2.216579554728544</v>
       </c>
       <c r="H26">
-        <v>2.289442050457001</v>
+        <v>2.223448014259338</v>
       </c>
       <c r="L26">
-        <v>45.17484532144427</v>
+        <v>47.0013512052564</v>
       </c>
       <c r="M26">
-        <v>47.54908847919719</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>48.94110954022955</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B27">
-        <v>2.242477893829346</v>
+        <v>2.209835529327393</v>
       </c>
       <c r="C27">
-        <v>2.254756212234497</v>
+        <v>2.209835529327393</v>
       </c>
       <c r="D27">
-        <v>2.242477893829346</v>
+        <v>2.074003934860229</v>
       </c>
       <c r="E27">
-        <v>2.244799613952637</v>
+        <v>2.088284254074097</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>611408</v>
       </c>
       <c r="G27">
-        <v>2.262856588408958</v>
+        <v>2.204916345578139</v>
       </c>
       <c r="H27">
-        <v>2.292322754859924</v>
+        <v>2.218758511543274</v>
       </c>
       <c r="L27">
-        <v>45.08679811574112</v>
+        <v>38.55405244009777</v>
       </c>
       <c r="M27">
-        <v>47.48971793407219</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>42.42282407864233</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B28">
-        <v>2.245737791061401</v>
+        <v>2.097416877746582</v>
       </c>
       <c r="C28">
-        <v>2.255540370941162</v>
+        <v>2.185490369796753</v>
       </c>
       <c r="D28">
-        <v>2.240855932235718</v>
+        <v>1.949643492698669</v>
       </c>
       <c r="E28">
-        <v>2.254225254058838</v>
+        <v>1.976792693138122</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>4888308</v>
       </c>
       <c r="G28">
-        <v>2.262071921649856</v>
+        <v>2.184177831719956</v>
       </c>
       <c r="H28">
-        <v>2.296195077896118</v>
+        <v>2.209092170000076</v>
       </c>
       <c r="L28">
-        <v>46.83191609093062</v>
+        <v>32.62896993917487</v>
       </c>
       <c r="M28">
-        <v>48.52582649669042</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>37.58164607912648</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B29">
-        <v>2.252889633178711</v>
+        <v>1.971129059791565</v>
       </c>
       <c r="C29">
-        <v>2.252889633178711</v>
+        <v>2.021925210952759</v>
       </c>
       <c r="D29">
-        <v>2.24047064781189</v>
+        <v>1.971129059791565</v>
       </c>
       <c r="E29">
-        <v>2.244568824768066</v>
+        <v>2.005447626113892</v>
       </c>
       <c r="F29">
-        <v>110268</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>2.260480731024239</v>
+        <v>2.167929631210314</v>
       </c>
       <c r="H29">
-        <v>2.297156059741974</v>
+        <v>2.20200622677803</v>
       </c>
       <c r="L29">
-        <v>45.17719235890549</v>
+        <v>35.49529654367631</v>
       </c>
       <c r="M29">
-        <v>47.4919438356561</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>39.49282111575887</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B30">
-        <v>2.24620008468628</v>
+        <v>2.003051280975342</v>
       </c>
       <c r="C30">
-        <v>2.296522855758667</v>
+        <v>2.025091886520386</v>
       </c>
       <c r="D30">
-        <v>2.245461225509644</v>
+        <v>1.99283492565155</v>
       </c>
       <c r="E30">
-        <v>2.292759656906128</v>
+        <v>2.022316455841064</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>2.263415178831683</v>
+        <v>2.154692069813109</v>
       </c>
       <c r="H30">
-        <v>2.297636020183563</v>
+        <v>2.198032981157303</v>
       </c>
       <c r="L30">
-        <v>54.25232496015527</v>
+        <v>37.26301941214772</v>
       </c>
       <c r="M30">
-        <v>52.88672853463729</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>40.64498904682934</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B31">
-        <v>2.295445680618286</v>
+        <v>2.030767917633057</v>
       </c>
       <c r="C31">
-        <v>2.295445680618286</v>
+        <v>2.072284936904907</v>
       </c>
       <c r="D31">
-        <v>2.254443407058716</v>
+        <v>2.030767917633057</v>
       </c>
       <c r="E31">
-        <v>2.265579223632812</v>
+        <v>2.070387601852417</v>
       </c>
       <c r="F31">
-        <v>121156</v>
+        <v>8000</v>
       </c>
       <c r="G31">
-        <v>2.26361191017724</v>
+        <v>2.147028027271228</v>
       </c>
       <c r="H31">
-        <v>2.298217010498047</v>
+        <v>2.195321196317673</v>
       </c>
       <c r="I31">
-        <v>2.26804002126058</v>
+        <v>2.18502478202184</v>
       </c>
       <c r="L31">
-        <v>49.09554861733428</v>
+        <v>42.3297378044024</v>
       </c>
       <c r="M31">
-        <v>49.78015893500609</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>43.9220549394218</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B32">
-        <v>2.262564897537231</v>
+        <v>2.075186967849731</v>
       </c>
       <c r="C32">
-        <v>2.296559810638428</v>
+        <v>2.142186641693115</v>
       </c>
       <c r="D32">
-        <v>2.243326187133789</v>
+        <v>2.0657958984375</v>
       </c>
       <c r="E32">
-        <v>2.259870290756226</v>
+        <v>2.140201807022095</v>
       </c>
       <c r="F32">
-        <v>70388</v>
+        <v>304008</v>
       </c>
       <c r="G32">
-        <v>2.263271762957148</v>
+        <v>2.146407461794034</v>
       </c>
       <c r="H32">
-        <v>2.298901700973511</v>
+        <v>2.195667010545731</v>
       </c>
       <c r="I32">
-        <v>2.269470882415772</v>
+        <v>2.183933389186859</v>
       </c>
       <c r="L32">
-        <v>48.01708179822273</v>
+        <v>49.05236498859347</v>
       </c>
       <c r="M32">
-        <v>49.12741693251711</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>48.37957556212949</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B33">
-        <v>2.260020732879639</v>
+        <v>2.144654989242554</v>
       </c>
       <c r="C33">
-        <v>2.310300588607788</v>
+        <v>2.161387920379639</v>
       </c>
       <c r="D33">
-        <v>2.260020732879639</v>
+        <v>2.141004323959351</v>
       </c>
       <c r="E33">
-        <v>2.29572057723999</v>
+        <v>2.153034448623657</v>
       </c>
       <c r="F33">
-        <v>2217882</v>
+        <v>216442</v>
       </c>
       <c r="G33">
-        <v>2.266221655164679</v>
+        <v>2.147009915142181</v>
       </c>
       <c r="H33">
-        <v>2.300892698764801</v>
+        <v>2.198208636045456</v>
       </c>
       <c r="I33">
-        <v>2.272892761230469</v>
+        <v>2.179587368170421</v>
       </c>
       <c r="L33">
-        <v>55.00042378057115</v>
+        <v>50.2515641647443</v>
       </c>
       <c r="M33">
-        <v>53.27115858683982</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>49.17922476108792</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B34">
-        <v>2.294367790222168</v>
+        <v>2.153022289276123</v>
       </c>
       <c r="C34">
-        <v>2.311840295791626</v>
+        <v>2.153022289276123</v>
       </c>
       <c r="D34">
-        <v>2.290637731552124</v>
+        <v>2.086164712905884</v>
       </c>
       <c r="E34">
-        <v>2.311840295791626</v>
+        <v>2.123090982437134</v>
       </c>
       <c r="F34">
-        <v>956856</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>2.270368804312583</v>
+        <v>2.14483546671445</v>
       </c>
       <c r="H34">
-        <v>2.293424820899963</v>
+        <v>2.199540859460831</v>
       </c>
       <c r="I34">
-        <v>2.277475563685099</v>
+        <v>2.178080181280772</v>
       </c>
       <c r="L34">
-        <v>57.8637811952198</v>
+        <v>47.32729398591756</v>
       </c>
       <c r="M34">
-        <v>55.0442991370665</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>47.33656412878724</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B35">
-        <v>2.311317205429077</v>
+        <v>2.122147560119629</v>
       </c>
       <c r="C35">
-        <v>2.416178941726685</v>
+        <v>2.124346971511841</v>
       </c>
       <c r="D35">
-        <v>2.309102535247803</v>
+        <v>2.068107843399048</v>
       </c>
       <c r="E35">
-        <v>2.388940572738647</v>
+        <v>2.068107843399048</v>
       </c>
       <c r="F35">
-        <v>15429300</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>2.281148055987679</v>
+        <v>2.137860228231232</v>
       </c>
       <c r="H35">
-        <v>2.29959568977356</v>
+        <v>2.198586815595627</v>
       </c>
       <c r="I35">
-        <v>2.28415420850118</v>
+        <v>2.17553536494573</v>
       </c>
       <c r="L35">
-        <v>68.61099138445778</v>
+        <v>42.24851472276981</v>
       </c>
       <c r="M35">
-        <v>62.39440762534746</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>44.07120644452655</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B36">
-        <v>2.382287979125977</v>
+        <v>2.064753293991089</v>
       </c>
       <c r="C36">
-        <v>2.387146472930908</v>
+        <v>2.064753293991089</v>
       </c>
       <c r="D36">
-        <v>2.337846994400024</v>
+        <v>2.0328528881073</v>
       </c>
       <c r="E36">
-        <v>2.345549345016479</v>
+        <v>2.0328528881073</v>
       </c>
       <c r="F36">
-        <v>8695832</v>
+        <v>340695</v>
       </c>
       <c r="G36">
-        <v>2.287002718626661</v>
+        <v>2.128314106401783</v>
       </c>
       <c r="H36">
-        <v>2.294215786457062</v>
+        <v>2.184406346082687</v>
       </c>
       <c r="I36">
-        <v>2.289756488800049</v>
+        <v>2.17164922952652</v>
       </c>
       <c r="L36">
-        <v>59.07166105304351</v>
+        <v>39.21307427938891</v>
       </c>
       <c r="M36">
-        <v>56.76903645351843</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>42.06740329596541</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B37">
-        <v>2.342951774597168</v>
+        <v>2.03261923789978</v>
       </c>
       <c r="C37">
-        <v>2.351835012435913</v>
+        <v>2.046160697937012</v>
       </c>
       <c r="D37">
-        <v>2.330284595489502</v>
+        <v>1.978086829185486</v>
       </c>
       <c r="E37">
-        <v>2.330551147460937</v>
+        <v>2.026306629180908</v>
       </c>
       <c r="F37">
-        <v>413694</v>
+        <v>57292</v>
       </c>
       <c r="G37">
-        <v>2.290961666702504</v>
+        <v>2.119040699381703</v>
       </c>
       <c r="H37">
-        <v>2.286557531356812</v>
+        <v>2.176664227247238</v>
       </c>
       <c r="I37">
-        <v>2.294535342852275</v>
+        <v>2.166456973552704</v>
       </c>
       <c r="L37">
-        <v>56.04177875033829</v>
+        <v>38.63324914309501</v>
       </c>
       <c r="M37">
-        <v>54.92570689501859</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>41.68837401121706</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B38">
-        <v>2.329088687896729</v>
+        <v>2.02695369720459</v>
       </c>
       <c r="C38">
-        <v>2.330080270767212</v>
+        <v>2.033657789230347</v>
       </c>
       <c r="D38">
-        <v>2.297410488128662</v>
+        <v>1.982962965965271</v>
       </c>
       <c r="E38">
-        <v>2.298122644424438</v>
+        <v>1.984108090400696</v>
       </c>
       <c r="F38">
-        <v>590892</v>
+        <v>8070</v>
       </c>
       <c r="G38">
-        <v>2.291612664677225</v>
+        <v>2.106774098565248</v>
       </c>
       <c r="H38">
-        <v>2.280110764503479</v>
+        <v>2.156838238239288</v>
       </c>
       <c r="I38">
-        <v>2.298580137888591</v>
+        <v>2.160256592432658</v>
       </c>
       <c r="L38">
-        <v>49.82539674269157</v>
+        <v>34.89174996237211</v>
       </c>
       <c r="M38">
-        <v>51.06483070051852</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>39.23433068394242</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B39">
-        <v>2.315379619598389</v>
+        <v>1.984669208526612</v>
       </c>
       <c r="C39">
-        <v>2.346694946289062</v>
+        <v>2.002665519714355</v>
       </c>
       <c r="D39">
-        <v>2.306137323379517</v>
+        <v>1.932535409927368</v>
       </c>
       <c r="E39">
-        <v>2.307987689971924</v>
+        <v>1.994321465492248</v>
       </c>
       <c r="F39">
-        <v>1474316</v>
+        <v>190400</v>
       </c>
       <c r="G39">
-        <v>2.29310130334038</v>
+        <v>2.096551131922248</v>
       </c>
       <c r="H39">
-        <v>2.280226278305054</v>
+        <v>2.134465473890304</v>
       </c>
       <c r="I39">
-        <v>2.301334754625956</v>
+        <v>2.155161758263906</v>
       </c>
       <c r="L39">
-        <v>51.66046803277931</v>
+        <v>36.56453801595089</v>
       </c>
       <c r="M39">
-        <v>52.16637109380601</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>40.15259799508188</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B40">
-        <v>2.308620929718018</v>
+        <v>2.005052328109741</v>
       </c>
       <c r="C40">
-        <v>2.325978279113769</v>
+        <v>2.005052328109741</v>
       </c>
       <c r="D40">
-        <v>2.308620929718018</v>
+        <v>1.965694308280945</v>
       </c>
       <c r="E40">
-        <v>2.313568353652954</v>
+        <v>1.997359991073608</v>
       </c>
       <c r="F40">
-        <v>27946</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>2.294961944277886</v>
+        <v>2.087533755481463</v>
       </c>
       <c r="H40">
-        <v>2.280734872817993</v>
+        <v>2.120743864774704</v>
       </c>
       <c r="I40">
-        <v>2.302348351478577</v>
+        <v>2.151681045691172</v>
       </c>
       <c r="L40">
-        <v>52.76002548533246</v>
+        <v>37.10537275645583</v>
       </c>
       <c r="M40">
-        <v>52.81346727627127</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>40.44095920017505</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B41">
-        <v>2.314462423324585</v>
+        <v>1.997496485710144</v>
       </c>
       <c r="C41">
-        <v>2.326000928878784</v>
+        <v>2.001630544662476</v>
       </c>
       <c r="D41">
-        <v>2.244991779327393</v>
+        <v>1.973825812339783</v>
       </c>
       <c r="E41">
-        <v>2.244991779327393</v>
+        <v>1.973825812339783</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41">
-        <v>2.29041920200966</v>
+        <v>2.07719666974131</v>
       </c>
       <c r="H41">
-        <v>2.280365633964538</v>
+        <v>2.097517001628876</v>
       </c>
       <c r="I41">
-        <v>2.302049430211385</v>
+        <v>2.146654462814331</v>
       </c>
       <c r="L41">
-        <v>40.13834006139142</v>
+        <v>34.5394885757514</v>
       </c>
       <c r="M41">
-        <v>44.7942434836483</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>38.87845441912174</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B42">
-        <v>2.229588747024536</v>
+        <v>1.966011762619018</v>
       </c>
       <c r="C42">
-        <v>2.229588747024536</v>
+        <v>1.998765707015991</v>
       </c>
       <c r="D42">
-        <v>1.986627578735352</v>
+        <v>1.962580442428589</v>
       </c>
       <c r="E42">
-        <v>2.185413599014282</v>
+        <v>1.975164771080017</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>28285</v>
       </c>
       <c r="G42">
-        <v>2.280873238100989</v>
+        <v>2.067921042590283</v>
       </c>
       <c r="H42">
-        <v>2.277583575248718</v>
+        <v>2.076721876859665</v>
       </c>
       <c r="I42">
-        <v>2.30002400080363</v>
+        <v>2.141383771101634</v>
       </c>
       <c r="L42">
-        <v>32.53183886270194</v>
+        <v>34.8279464016583</v>
       </c>
       <c r="M42">
-        <v>39.22218610012811</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>39.02280554521228</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B43">
-        <v>2.199130296707153</v>
+        <v>1.982002139091492</v>
       </c>
       <c r="C43">
-        <v>2.261209011077881</v>
+        <v>1.992246747016907</v>
       </c>
       <c r="D43">
-        <v>2.163954734802246</v>
+        <v>1.926014423370361</v>
       </c>
       <c r="E43">
-        <v>2.172943592071533</v>
+        <v>1.970582604408264</v>
       </c>
       <c r="F43">
-        <v>802713</v>
+        <v>517677</v>
       </c>
       <c r="G43">
-        <v>2.271061452098311</v>
+        <v>2.059072093664645</v>
       </c>
       <c r="H43">
-        <v>2.275128293037414</v>
+        <v>2.060994589328766</v>
       </c>
       <c r="I43">
-        <v>2.297258766492208</v>
+        <v>2.136996459960938</v>
       </c>
       <c r="L43">
-        <v>31.14218513920806</v>
+        <v>34.24694000347722</v>
       </c>
       <c r="M43">
-        <v>38.15244209816301</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>38.68608547251579</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B44">
-        <v>2.173632621765137</v>
+        <v>1.980967164039612</v>
       </c>
       <c r="C44">
-        <v>2.289437532424927</v>
+        <v>1.987747430801392</v>
       </c>
       <c r="D44">
-        <v>2.168294668197632</v>
+        <v>1.950621366500854</v>
       </c>
       <c r="E44">
-        <v>2.283415079116821</v>
+        <v>1.974830985069275</v>
       </c>
       <c r="F44">
-        <v>112444</v>
+        <v>137158</v>
       </c>
       <c r="G44">
-        <v>2.272184509099993</v>
+        <v>2.051413811065066</v>
       </c>
       <c r="H44">
-        <v>2.277003967761993</v>
+        <v>2.049337655305862</v>
       </c>
       <c r="I44">
-        <v>2.291332674026489</v>
+        <v>2.132942608992259</v>
       </c>
       <c r="L44">
-        <v>51.70345967218854</v>
+        <v>35.37149887203362</v>
       </c>
       <c r="M44">
-        <v>50.92263574018325</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>39.20983191414685</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B45">
-        <v>2.284970283508301</v>
+        <v>1.975356936454773</v>
       </c>
       <c r="C45">
-        <v>2.295320272445679</v>
+        <v>2.131088256835937</v>
       </c>
       <c r="D45">
-        <v>2.127667903900146</v>
+        <v>1.951491475105286</v>
       </c>
       <c r="E45">
-        <v>2.168306589126587</v>
+        <v>2.080008745193481</v>
       </c>
       <c r="F45">
-        <v>50494</v>
+        <v>1526450</v>
       </c>
       <c r="G45">
-        <v>2.262741061829684</v>
+        <v>2.054013350531286</v>
       </c>
       <c r="H45">
-        <v>2.272729170322418</v>
+        <v>2.04347248673439</v>
       </c>
       <c r="I45">
-        <v>2.288092120488485</v>
+        <v>2.13270327647527</v>
       </c>
       <c r="L45">
-        <v>38.29798036700623</v>
+        <v>56.22390781582482</v>
       </c>
       <c r="M45">
-        <v>41.34354155669322</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>50.48628953213952</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B46">
-        <v>2.163717269897461</v>
+        <v>2.080610990524292</v>
       </c>
       <c r="C46">
-        <v>2.253609657287598</v>
+        <v>2.196337938308716</v>
       </c>
       <c r="D46">
-        <v>2.144452333450317</v>
+        <v>2.080610990524292</v>
       </c>
       <c r="E46">
-        <v>2.144452333450317</v>
+        <v>2.175441980361938</v>
       </c>
       <c r="F46">
-        <v>76868</v>
+        <v>8831230</v>
       </c>
       <c r="G46">
-        <v>2.251987541067923</v>
+        <v>2.065052316879527</v>
       </c>
       <c r="H46">
-        <v>2.267680323123932</v>
+        <v>2.041623383760452</v>
       </c>
       <c r="I46">
-        <v>2.277802284558614</v>
+        <v>2.128002599875132</v>
       </c>
       <c r="L46">
-        <v>36.11494517175157</v>
+        <v>67.0696024888817</v>
       </c>
       <c r="M46">
-        <v>39.67781204188903</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>58.08395337949859</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B47">
-        <v>2.148950099945068</v>
+        <v>2.176146984100342</v>
       </c>
       <c r="C47">
-        <v>2.158941268920898</v>
+        <v>2.196250915527344</v>
       </c>
       <c r="D47">
-        <v>2.137545347213745</v>
+        <v>2.143882751464844</v>
       </c>
       <c r="E47">
-        <v>2.149436950683594</v>
+        <v>2.175074338912964</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>1969819</v>
       </c>
       <c r="G47">
-        <v>2.242664760123893</v>
+        <v>2.075054318882566</v>
       </c>
       <c r="H47">
-        <v>2.26291218996048</v>
+        <v>2.045962888002395</v>
       </c>
       <c r="I47">
-        <v>2.266659641265869</v>
+        <v>2.127800110975901</v>
       </c>
       <c r="L47">
-        <v>36.95968257423804</v>
+        <v>66.99766464890241</v>
       </c>
       <c r="M47">
-        <v>40.21981874849022</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>58.04700087371771</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B48">
-        <v>2.145262718200684</v>
+        <v>2.184719800949097</v>
       </c>
       <c r="C48">
-        <v>2.185905694961548</v>
+        <v>2.284442663192749</v>
       </c>
       <c r="D48">
-        <v>2.143704652786255</v>
+        <v>2.183571577072144</v>
       </c>
       <c r="E48">
-        <v>2.182074308395386</v>
+        <v>2.248286485671997</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>8156827</v>
       </c>
       <c r="G48">
-        <v>2.237156537239483</v>
+        <v>2.090802697681605</v>
       </c>
       <c r="H48">
-        <v>2.259304642677307</v>
+        <v>2.059537577629089</v>
       </c>
       <c r="I48">
-        <v>2.258493518829346</v>
+        <v>2.123388731479645</v>
       </c>
       <c r="L48">
-        <v>42.5548315980999</v>
+        <v>73.39152137041626</v>
       </c>
       <c r="M48">
-        <v>43.78165146490196</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>63.08373305894517</v>
+      </c>
+      <c r="O48" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B49">
-        <v>2.181798934936523</v>
+        <v>2.24719500541687</v>
       </c>
       <c r="C49">
-        <v>2.186183214187622</v>
+        <v>2.358819961547852</v>
       </c>
       <c r="D49">
-        <v>2.165279865264893</v>
+        <v>2.202268838882446</v>
       </c>
       <c r="E49">
-        <v>2.170119524002075</v>
+        <v>2.264093160629272</v>
       </c>
       <c r="F49">
-        <v>19277</v>
+        <v>15512300</v>
       </c>
       <c r="G49">
-        <v>2.23106226330881</v>
+        <v>2.106556376131393</v>
       </c>
       <c r="H49">
-        <v>2.255582177639007</v>
+        <v>2.072469854354858</v>
       </c>
       <c r="I49">
-        <v>2.253974922498067</v>
+        <v>2.11746594508489</v>
       </c>
       <c r="L49">
-        <v>41.05334621851089</v>
+        <v>74.58737403328026</v>
       </c>
       <c r="M49">
-        <v>42.7762705223336</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>64.08624314017197</v>
+      </c>
+      <c r="O49" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B50">
-        <v>2.170371770858765</v>
+        <v>2.260720252990723</v>
       </c>
       <c r="C50">
-        <v>2.185518026351929</v>
+        <v>2.300270557403564</v>
       </c>
       <c r="D50">
-        <v>2.14716649055481</v>
+        <v>2.255612134933472</v>
       </c>
       <c r="E50">
-        <v>2.14716649055481</v>
+        <v>2.272332191467285</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>1057192</v>
       </c>
       <c r="G50">
-        <v>2.223435374876627</v>
+        <v>2.121626904798293</v>
       </c>
       <c r="H50">
-        <v>2.248302519321442</v>
+        <v>2.084970641136169</v>
       </c>
       <c r="I50">
-        <v>2.248767256736755</v>
+        <v>2.117483945687612</v>
       </c>
       <c r="L50">
-        <v>38.14615334230992</v>
+        <v>75.23990051926313</v>
       </c>
       <c r="M50">
-        <v>40.83726867958526</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>64.62548274506332</v>
+      </c>
+      <c r="O50" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B51">
-        <v>2.148336410522461</v>
+        <v>2.27318286895752</v>
       </c>
       <c r="C51">
-        <v>2.150192499160767</v>
+        <v>2.295251846313477</v>
       </c>
       <c r="D51">
-        <v>2.101781368255615</v>
+        <v>2.255055904388428</v>
       </c>
       <c r="E51">
-        <v>2.101781368255615</v>
+        <v>2.282984256744385</v>
       </c>
       <c r="F51">
-        <v>116504</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>2.212375919729263</v>
+        <v>2.13629575497521</v>
       </c>
       <c r="H51">
-        <v>2.240112626552582</v>
+        <v>2.095600473880768</v>
       </c>
       <c r="I51">
-        <v>2.24374741713206</v>
+        <v>2.112304651737213</v>
       </c>
       <c r="L51">
-        <v>32.95491031284083</v>
+        <v>76.13133008038153</v>
       </c>
       <c r="M51">
-        <v>37.24249029694047</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>65.34986572856967</v>
+      </c>
+      <c r="O51" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B52">
-        <v>2.10276746749878</v>
+        <v>2.283014297485352</v>
       </c>
       <c r="C52">
-        <v>2.134786367416382</v>
+        <v>2.337480783462524</v>
       </c>
       <c r="D52">
-        <v>2.092970609664917</v>
+        <v>2.221897840499878</v>
       </c>
       <c r="E52">
-        <v>2.12462329864502</v>
+        <v>2.236612319946289</v>
       </c>
       <c r="F52">
-        <v>45650</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>2.204398408721604</v>
+        <v>2.145415442699854</v>
       </c>
       <c r="H52">
-        <v>2.233350276947021</v>
+        <v>2.100420999526977</v>
       </c>
       <c r="I52">
-        <v>2.239866367975871</v>
+        <v>2.107156153519948</v>
       </c>
       <c r="L52">
-        <v>37.75138462014853</v>
+        <v>64.71975817812834</v>
       </c>
       <c r="M52">
-        <v>40.10036752925311</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>59.62563856170246</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B53">
-        <v>2.128767967224121</v>
+        <v>2.243919134140014</v>
       </c>
       <c r="C53">
-        <v>2.137346506118774</v>
+        <v>2.277171850204468</v>
       </c>
       <c r="D53">
-        <v>2.12082314491272</v>
+        <v>2.235666513442993</v>
       </c>
       <c r="E53">
-        <v>2.133285522460937</v>
+        <v>2.236703395843506</v>
       </c>
       <c r="F53">
-        <v>118742</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>2.197933600879725</v>
+        <v>2.153714347531094</v>
       </c>
       <c r="H53">
-        <v>2.225228524208069</v>
+        <v>2.10460444688797</v>
       </c>
       <c r="I53">
-        <v>2.236907577514649</v>
+        <v>2.105541988213857</v>
       </c>
       <c r="L53">
-        <v>39.59502814480904</v>
+        <v>64.73143892305633</v>
       </c>
       <c r="M53">
-        <v>41.19402321567649</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>59.63311733346457</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B54">
-        <v>2.127353191375732</v>
+        <v>2.243687629699707</v>
       </c>
       <c r="C54">
-        <v>2.138742208480835</v>
+        <v>2.265678405761719</v>
       </c>
       <c r="D54">
-        <v>2.10220193862915</v>
+        <v>2.23927903175354</v>
       </c>
       <c r="E54">
-        <v>2.10220193862915</v>
+        <v>2.257082939147949</v>
       </c>
       <c r="F54">
-        <v>40130</v>
+        <v>0</v>
       </c>
       <c r="G54">
-        <v>2.189230722493309</v>
+        <v>2.163111492223536</v>
       </c>
       <c r="H54">
-        <v>2.214746606349945</v>
+        <v>2.111304044723511</v>
       </c>
       <c r="I54">
-        <v>2.232117589314778</v>
+        <v>2.107179097334544</v>
       </c>
       <c r="L54">
-        <v>35.36646242215152</v>
+        <v>67.44477275451916</v>
       </c>
       <c r="M54">
-        <v>38.47904055332445</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>61.35800123085004</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B55">
-        <v>2.107583045959473</v>
+        <v>2.24954080581665</v>
       </c>
       <c r="C55">
-        <v>2.111677646636963</v>
+        <v>2.25269603729248</v>
       </c>
       <c r="D55">
-        <v>2.079139471054077</v>
+        <v>2.222738027572632</v>
       </c>
       <c r="E55">
-        <v>2.096446514129639</v>
+        <v>2.225282907485962</v>
       </c>
       <c r="F55">
-        <v>6871</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>2.180795794460249</v>
+        <v>2.168763439065575</v>
       </c>
       <c r="H55">
-        <v>2.200121903419495</v>
+        <v>2.119162797927856</v>
       </c>
       <c r="I55">
-        <v>2.22687238852183</v>
+        <v>2.108111457029978</v>
       </c>
       <c r="L55">
-        <v>34.59682275424806</v>
+        <v>59.41998338515243</v>
       </c>
       <c r="M55">
-        <v>37.97990593201992</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>57.24737471640638</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B56">
-        <v>2.097591876983643</v>
+        <v>2.218446016311645</v>
       </c>
       <c r="C56">
-        <v>2.098750352859497</v>
+        <v>2.233132839202881</v>
       </c>
       <c r="D56">
-        <v>2.081893920898437</v>
+        <v>2.156367540359497</v>
       </c>
       <c r="E56">
-        <v>2.087188720703125</v>
+        <v>2.181339263916016</v>
       </c>
       <c r="F56">
-        <v>3378</v>
+        <v>311566</v>
       </c>
       <c r="G56">
-        <v>2.172286060482328</v>
+        <v>2.16990669587016</v>
       </c>
       <c r="H56">
-        <v>2.187203872203827</v>
+        <v>2.126587116718292</v>
       </c>
       <c r="I56">
-        <v>2.221597703297933</v>
+        <v>2.107075297832489</v>
       </c>
       <c r="L56">
-        <v>33.2860113051646</v>
+        <v>50.14462376287574</v>
       </c>
       <c r="M56">
-        <v>37.14524235076843</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>52.05732130949287</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B57">
-        <v>2.092721700668335</v>
+        <v>2.188400030136108</v>
       </c>
       <c r="C57">
-        <v>2.349278926849365</v>
+        <v>2.216834306716919</v>
       </c>
       <c r="D57">
-        <v>2.092721700668335</v>
+        <v>2.109481573104858</v>
       </c>
       <c r="E57">
-        <v>2.316462278366089</v>
+        <v>2.1855788230896</v>
       </c>
       <c r="F57">
-        <v>43678105</v>
+        <v>335215</v>
       </c>
       <c r="G57">
-        <v>2.185392989380852</v>
+        <v>2.171331434708291</v>
       </c>
       <c r="H57">
-        <v>2.186499428749085</v>
+        <v>2.134550726413727</v>
       </c>
       <c r="I57">
-        <v>2.223986458778382</v>
+        <v>2.110318450133006</v>
       </c>
       <c r="L57">
-        <v>67.5453872362397</v>
+        <v>50.97522204131643</v>
       </c>
       <c r="M57">
-        <v>60.37207798959534</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>52.50470093273663</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B58">
-        <v>2.321397066116333</v>
+        <v>2.189270973205566</v>
       </c>
       <c r="C58">
-        <v>2.321397066116333</v>
+        <v>2.210153341293335</v>
       </c>
       <c r="D58">
-        <v>2.170656681060791</v>
+        <v>2.087506771087646</v>
       </c>
       <c r="E58">
-        <v>2.181149005889893</v>
+        <v>2.15519905090332</v>
       </c>
       <c r="F58">
-        <v>29082940</v>
+        <v>0</v>
       </c>
       <c r="G58">
-        <v>2.185007172699855</v>
+        <v>2.169864854362384</v>
       </c>
       <c r="H58">
-        <v>2.180650746822357</v>
+        <v>2.143105274438858</v>
       </c>
       <c r="I58">
-        <v>2.221550583839417</v>
+        <v>2.116265328725179</v>
       </c>
       <c r="L58">
-        <v>50.3709760434381</v>
+        <v>44.93956901192468</v>
       </c>
       <c r="M58">
-        <v>48.88951727696158</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
+        <v>48.97773628021072</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B59">
-        <v>2.178072452545166</v>
+        <v>2.151651859283448</v>
       </c>
       <c r="C59">
-        <v>2.380627870559692</v>
+        <v>2.192238330841064</v>
       </c>
       <c r="D59">
-        <v>2.168911933898926</v>
+        <v>2.141095161437988</v>
       </c>
       <c r="E59">
-        <v>2.380627870559692</v>
+        <v>2.18106460571289</v>
       </c>
       <c r="F59">
-        <v>8269936</v>
+        <v>20334</v>
       </c>
       <c r="G59">
-        <v>2.202790872505295</v>
+        <v>2.170883013576067</v>
       </c>
       <c r="H59">
-        <v>2.184282755851746</v>
+        <v>2.15244243144989</v>
       </c>
       <c r="I59">
-        <v>2.226085885365804</v>
+        <v>2.122119228045146</v>
       </c>
       <c r="L59">
-        <v>65.09157374491303</v>
+        <v>50.54797016565549</v>
       </c>
       <c r="M59">
-        <v>60.74331313222446</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>51.93797639400695</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B60">
-        <v>2.356767177581787</v>
+        <v>2.173730611801147</v>
       </c>
       <c r="C60">
-        <v>2.48975133895874</v>
+        <v>2.183887004852295</v>
       </c>
       <c r="D60">
-        <v>2.274642944335937</v>
+        <v>2.137301921844482</v>
       </c>
       <c r="E60">
-        <v>2.441776752471924</v>
+        <v>2.13745665550232</v>
       </c>
       <c r="F60">
-        <v>45801616</v>
+        <v>0</v>
       </c>
       <c r="G60">
-        <v>2.224516861593171</v>
+        <v>2.167844253751181</v>
       </c>
       <c r="H60">
-        <v>2.190693175792694</v>
+        <v>2.159447264671326</v>
       </c>
       <c r="I60">
-        <v>2.231053121884664</v>
+        <v>2.125957234700521</v>
       </c>
       <c r="L60">
-        <v>68.33100079442588</v>
+        <v>42.36354541800375</v>
       </c>
       <c r="M60">
-        <v>63.53519878744516</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
+        <v>46.98821028142579</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B61">
-        <v>2.434340476989746</v>
+        <v>2.144574880599976</v>
       </c>
       <c r="C61">
-        <v>2.435766458511353</v>
+        <v>2.182334899902344</v>
       </c>
       <c r="D61">
-        <v>2.269863843917847</v>
+        <v>2.139952659606934</v>
       </c>
       <c r="E61">
-        <v>2.27179217338562</v>
+        <v>2.182056665420532</v>
       </c>
       <c r="F61">
-        <v>5422968</v>
+        <v>0</v>
       </c>
       <c r="G61">
-        <v>2.228814617210666</v>
+        <v>2.169136291175667</v>
       </c>
       <c r="H61">
-        <v>2.192033195495605</v>
+        <v>2.169858807325363</v>
       </c>
       <c r="I61">
-        <v>2.231260220209757</v>
+        <v>2.129679536819458</v>
       </c>
       <c r="L61">
-        <v>52.96117152324604</v>
+        <v>51.41482562309558</v>
       </c>
       <c r="M61">
-        <v>52.38258639771473</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
+        <v>52.0241056520817</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B62">
-        <v>2.275296688079834</v>
+        <v>2.178928852081299</v>
       </c>
       <c r="C62">
-        <v>2.443437099456787</v>
+        <v>2.178928852081299</v>
       </c>
       <c r="D62">
-        <v>2.266209363937378</v>
+        <v>2.162665843963623</v>
       </c>
       <c r="E62">
-        <v>2.438363075256348</v>
+        <v>2.166912794113159</v>
       </c>
       <c r="F62">
-        <v>4832928</v>
+        <v>0</v>
       </c>
       <c r="G62">
-        <v>2.247864477033001</v>
+        <v>2.168934155079075</v>
       </c>
       <c r="H62">
-        <v>2.204680669307709</v>
+        <v>2.17944620847702</v>
       </c>
       <c r="I62">
-        <v>2.237209979693095</v>
+        <v>2.130569903055827</v>
       </c>
       <c r="L62">
-        <v>62.30762589510567</v>
+        <v>48.50508359721258</v>
       </c>
       <c r="M62">
-        <v>59.82469053116491</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
+        <v>50.27761782650049</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B63">
-        <v>2.436886787414551</v>
+        <v>2.166913986206055</v>
       </c>
       <c r="C63">
-        <v>2.436886787414551</v>
+        <v>2.187296152114868</v>
       </c>
       <c r="D63">
-        <v>2.269107580184937</v>
+        <v>2.162770509719849</v>
       </c>
       <c r="E63">
-        <v>2.391067266464233</v>
+        <v>2.175803422927856</v>
       </c>
       <c r="F63">
-        <v>2850448</v>
+        <v>0</v>
       </c>
       <c r="G63">
-        <v>2.26088291243584</v>
+        <v>2.169558633974419</v>
       </c>
       <c r="H63">
-        <v>2.215586853027344</v>
+        <v>2.189707249403</v>
       </c>
       <c r="I63">
-        <v>2.240388202667236</v>
+        <v>2.131328868865967</v>
       </c>
       <c r="L63">
-        <v>58.58899974700954</v>
+        <v>50.36050089389742</v>
       </c>
       <c r="M63">
-        <v>57.09606270534797</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
+        <v>51.31102581871632</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B64">
-        <v>2.389041423797607</v>
+        <v>2.186420202255249</v>
       </c>
       <c r="C64">
-        <v>2.408355951309204</v>
+        <v>2.186420202255249</v>
       </c>
       <c r="D64">
-        <v>2.278750896453857</v>
+        <v>2.148239850997925</v>
       </c>
       <c r="E64">
-        <v>2.285128355026245</v>
+        <v>2.157913684844971</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
       <c r="G64">
-        <v>2.263087043580422</v>
+        <v>2.168500002235378</v>
       </c>
       <c r="H64">
-        <v>2.215672516822815</v>
+        <v>2.198861384391785</v>
       </c>
       <c r="I64">
-        <v>2.239497804641724</v>
+        <v>2.132489625612895</v>
       </c>
       <c r="L64">
-        <v>50.92956602428657</v>
+        <v>46.56264152236562</v>
       </c>
       <c r="M64">
-        <v>51.43685325478774</v>
+        <v>49.09968939029857</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -2949,34 +2964,34 @@
         <v>77</v>
       </c>
       <c r="B65">
-        <v>2.419384717941284</v>
+        <v>2.152875185012817</v>
       </c>
       <c r="C65">
-        <v>2.426909446716309</v>
+        <v>2.167868375778198</v>
       </c>
       <c r="D65">
-        <v>2.207969665527344</v>
+        <v>2.138688087463379</v>
       </c>
       <c r="E65">
-        <v>2.207969665527344</v>
+        <v>2.149352073669434</v>
       </c>
       <c r="F65">
-        <v>2571112</v>
+        <v>57359</v>
       </c>
       <c r="G65">
-        <v>2.258076372848324</v>
+        <v>2.166759281456656</v>
       </c>
       <c r="H65">
-        <v>2.217655670642853</v>
+        <v>2.202328550815582</v>
       </c>
       <c r="I65">
-        <v>2.233465441068013</v>
+        <v>2.135197766621908</v>
       </c>
       <c r="L65">
-        <v>46.00193133955146</v>
+        <v>44.74584780135233</v>
       </c>
       <c r="M65">
-        <v>47.72643694721052</v>
+        <v>48.03280280615691</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -2984,34 +2999,34 @@
         <v>78</v>
       </c>
       <c r="B66">
-        <v>2.21296215057373</v>
+        <v>2.155841588973999</v>
       </c>
       <c r="C66">
-        <v>2.232322692871094</v>
+        <v>2.200731515884399</v>
       </c>
       <c r="D66">
-        <v>2.192140102386475</v>
+        <v>2.142643451690674</v>
       </c>
       <c r="E66">
-        <v>2.197312116622925</v>
+        <v>2.192990064620972</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>59636</v>
       </c>
       <c r="G66">
-        <v>2.252552349555106</v>
+        <v>2.169143898107957</v>
       </c>
       <c r="H66">
-        <v>2.220298659801483</v>
+        <v>2.203205955028534</v>
       </c>
       <c r="I66">
-        <v>2.228524200121562</v>
+        <v>2.140535672505697</v>
       </c>
       <c r="L66">
-        <v>45.3205523528278</v>
+        <v>54.84786437290951</v>
       </c>
       <c r="M66">
-        <v>47.2197622472971</v>
+        <v>53.57047997629035</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -3019,34 +3034,34 @@
         <v>79</v>
       </c>
       <c r="B67">
-        <v>2.205390453338623</v>
+        <v>2.194361448287964</v>
       </c>
       <c r="C67">
-        <v>2.231671571731567</v>
+        <v>2.205952167510986</v>
       </c>
       <c r="D67">
-        <v>2.20412540435791</v>
+        <v>2.177937507629395</v>
       </c>
       <c r="E67">
-        <v>2.212424039840698</v>
+        <v>2.204102277755737</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>27147</v>
       </c>
       <c r="G67">
-        <v>2.248904321399251</v>
+        <v>2.172321932621392</v>
       </c>
       <c r="H67">
-        <v>2.223448014259338</v>
+        <v>2.204657351970673</v>
       </c>
       <c r="I67">
-        <v>2.224586629867554</v>
+        <v>2.146462194124858</v>
       </c>
       <c r="L67">
-        <v>46.58269820521323</v>
+        <v>57.09504973409239</v>
       </c>
       <c r="M67">
-        <v>48.06174777073664</v>
+        <v>54.88874800221279</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -3054,34 +3069,34 @@
         <v>80</v>
       </c>
       <c r="B68">
-        <v>2.209835529327393</v>
+        <v>2.206537485122681</v>
       </c>
       <c r="C68">
-        <v>2.209835529327393</v>
+        <v>2.230362415313721</v>
       </c>
       <c r="D68">
-        <v>2.074003934860229</v>
+        <v>2.195033311843872</v>
       </c>
       <c r="E68">
-        <v>2.088284254074097</v>
+        <v>2.217156887054444</v>
       </c>
       <c r="F68">
-        <v>611408</v>
+        <v>22904</v>
       </c>
       <c r="G68">
-        <v>2.234302497096964</v>
+        <v>2.176397837569851</v>
       </c>
       <c r="H68">
-        <v>2.218758511543274</v>
+        <v>2.203100872039795</v>
       </c>
       <c r="I68">
-        <v>2.217592016855876</v>
+        <v>2.154230487346649</v>
       </c>
       <c r="L68">
-        <v>38.39279247662449</v>
+        <v>59.74304589679339</v>
       </c>
       <c r="M68">
-        <v>42.11780105131378</v>
+        <v>56.45303145583021</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -3089,34 +3104,34 @@
         <v>81</v>
       </c>
       <c r="B69">
-        <v>2.097416877746582</v>
+        <v>2.214672803878784</v>
       </c>
       <c r="C69">
-        <v>2.185490369796753</v>
+        <v>2.216608285903931</v>
       </c>
       <c r="D69">
-        <v>1.949643492698669</v>
+        <v>2.163096189498901</v>
       </c>
       <c r="E69">
-        <v>1.976792693138122</v>
+        <v>2.170725107192993</v>
       </c>
       <c r="F69">
-        <v>4888308</v>
+        <v>200015</v>
       </c>
       <c r="G69">
-        <v>2.210892514918888</v>
+        <v>2.175882134808318</v>
       </c>
       <c r="H69">
-        <v>2.209092170000076</v>
+        <v>2.198432469367981</v>
       </c>
       <c r="I69">
-        <v>2.206552183628082</v>
+        <v>2.160110608736674</v>
       </c>
       <c r="L69">
-        <v>32.60150143978102</v>
+        <v>47.91123347361833</v>
       </c>
       <c r="M69">
-        <v>37.61806084772288</v>
+        <v>49.83402676911592</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -3124,34 +3139,34 @@
         <v>82</v>
       </c>
       <c r="B70">
-        <v>1.971129059791565</v>
+        <v>2.17523980140686</v>
       </c>
       <c r="C70">
-        <v>2.021925210952759</v>
+        <v>2.206996202468872</v>
       </c>
       <c r="D70">
-        <v>1.971129059791565</v>
+        <v>2.1692054271698</v>
       </c>
       <c r="E70">
-        <v>2.005447626113892</v>
+        <v>2.201518058776855</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>284743</v>
       </c>
       <c r="G70">
-        <v>2.192215706845706</v>
+        <v>2.178212673350913</v>
       </c>
       <c r="H70">
-        <v>2.20200622677803</v>
+        <v>2.19489176273346</v>
       </c>
       <c r="I70">
-        <v>2.196281492710114</v>
+        <v>2.166915877660116</v>
       </c>
       <c r="L70">
-        <v>35.41823347439388</v>
+        <v>54.61696230151544</v>
       </c>
       <c r="M70">
-        <v>39.40976569151183</v>
+        <v>53.7102676794894</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -3159,34 +3174,34 @@
         <v>83</v>
       </c>
       <c r="B71">
-        <v>2.003051280975342</v>
+        <v>2.19355034828186</v>
       </c>
       <c r="C71">
-        <v>2.025091886520386</v>
+        <v>2.215277671813965</v>
       </c>
       <c r="D71">
-        <v>1.99283492565155</v>
+        <v>2.193427324295044</v>
       </c>
       <c r="E71">
-        <v>2.022316455841064</v>
+        <v>2.195990324020386</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>81931</v>
       </c>
       <c r="G71">
-        <v>2.176770320390739</v>
+        <v>2.179828823411774</v>
       </c>
       <c r="H71">
-        <v>2.198032981157303</v>
+        <v>2.190542066097259</v>
       </c>
       <c r="I71">
-        <v>2.188858981927236</v>
+        <v>2.174321361382802</v>
       </c>
       <c r="L71">
-        <v>37.15758069407596</v>
+        <v>53.2329782759469</v>
       </c>
       <c r="M71">
-        <v>40.49330254225006</v>
+        <v>52.9197710272332</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -3194,34 +3209,34 @@
         <v>84</v>
       </c>
       <c r="B72">
-        <v>2.030767917633057</v>
+        <v>2.195356130599976</v>
       </c>
       <c r="C72">
-        <v>2.072284936904907</v>
+        <v>2.209043264389038</v>
       </c>
       <c r="D72">
-        <v>2.030767917633057</v>
+        <v>2.175640344619751</v>
       </c>
       <c r="E72">
-        <v>2.070387601852417</v>
+        <v>2.194994449615479</v>
       </c>
       <c r="F72">
-        <v>8000</v>
+        <v>318928</v>
       </c>
       <c r="G72">
-        <v>2.167099164159982</v>
+        <v>2.18120751670302</v>
       </c>
       <c r="H72">
-        <v>2.195321196317673</v>
+        <v>2.188461172580719</v>
       </c>
       <c r="I72">
-        <v>2.18502478202184</v>
+        <v>2.181649017333984</v>
       </c>
       <c r="L72">
-        <v>42.15233621055373</v>
+        <v>52.9609779471574</v>
       </c>
       <c r="M72">
-        <v>43.58920642015268</v>
+        <v>52.76908799017038</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -3229,34 +3244,34 @@
         <v>85</v>
       </c>
       <c r="B73">
-        <v>2.075186967849731</v>
+        <v>2.192103862762451</v>
       </c>
       <c r="C73">
-        <v>2.142186641693115</v>
+        <v>2.228638410568237</v>
       </c>
       <c r="D73">
-        <v>2.0657958984375</v>
+        <v>2.164047002792358</v>
       </c>
       <c r="E73">
-        <v>2.140201807022095</v>
+        <v>2.19035005569458</v>
       </c>
       <c r="F73">
-        <v>304008</v>
+        <v>2256345</v>
       </c>
       <c r="G73">
-        <v>2.16465394987472</v>
+        <v>2.182038656611343</v>
       </c>
       <c r="H73">
-        <v>2.195667010545731</v>
+        <v>2.186143505573273</v>
       </c>
       <c r="I73">
-        <v>2.183933389186859</v>
+        <v>2.188974599043528</v>
       </c>
       <c r="L73">
-        <v>48.80100393250348</v>
+        <v>51.57826387217436</v>
       </c>
       <c r="M73">
-        <v>47.83396914998402</v>
+        <v>52.02509566303572</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -3264,34 +3279,34 @@
         <v>86</v>
       </c>
       <c r="B74">
-        <v>2.144654989242554</v>
+        <v>2.189973592758179</v>
       </c>
       <c r="C74">
-        <v>2.161387920379639</v>
+        <v>2.217072248458862</v>
       </c>
       <c r="D74">
-        <v>2.141004323959351</v>
+        <v>2.174107313156128</v>
       </c>
       <c r="E74">
-        <v>2.153034448623657</v>
+        <v>2.199653387069702</v>
       </c>
       <c r="F74">
-        <v>216442</v>
+        <v>77729</v>
       </c>
       <c r="G74">
-        <v>2.163597631579168</v>
+        <v>2.183639995743921</v>
       </c>
       <c r="H74">
-        <v>2.198208636045456</v>
+        <v>2.18327202796936</v>
       </c>
       <c r="I74">
-        <v>2.179587368170421</v>
+        <v>2.196468679110209</v>
       </c>
       <c r="L74">
-        <v>49.9895990197003</v>
+        <v>54.26887092681837</v>
       </c>
       <c r="M74">
-        <v>48.59959172286957</v>
+        <v>53.44116683566742</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -3299,34 +3314,34 @@
         <v>87</v>
       </c>
       <c r="B75">
-        <v>2.153022289276123</v>
+        <v>2.199975252151489</v>
       </c>
       <c r="C75">
-        <v>2.153022289276123</v>
+        <v>2.220998287200928</v>
       </c>
       <c r="D75">
-        <v>2.086164712905884</v>
+        <v>2.181054830551147</v>
       </c>
       <c r="E75">
-        <v>2.123090982437134</v>
+        <v>2.21740460395813</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>79691</v>
       </c>
       <c r="G75">
-        <v>2.159915208929892</v>
+        <v>2.186709505581577</v>
       </c>
       <c r="H75">
-        <v>2.199540859460831</v>
+        <v>2.182878112792969</v>
       </c>
       <c r="I75">
-        <v>2.178080181280772</v>
+        <v>2.201048541069031</v>
       </c>
       <c r="L75">
-        <v>47.11816162238265</v>
+        <v>59.14221325606916</v>
       </c>
       <c r="M75">
-        <v>46.87096385595353</v>
+        <v>56.10357386347874</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -3334,34 +3349,34 @@
         <v>88</v>
       </c>
       <c r="B76">
-        <v>2.122147560119629</v>
+        <v>2.213988304138184</v>
       </c>
       <c r="C76">
-        <v>2.124346971511841</v>
+        <v>2.21916937828064</v>
       </c>
       <c r="D76">
-        <v>2.068107843399048</v>
+        <v>2.166433811187744</v>
       </c>
       <c r="E76">
-        <v>2.068107843399048</v>
+        <v>2.185503244400024</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>347788</v>
       </c>
       <c r="G76">
-        <v>2.151569084790725</v>
+        <v>2.186599845474163</v>
       </c>
       <c r="H76">
-        <v>2.198586815595627</v>
+        <v>2.183086311817169</v>
       </c>
       <c r="I76">
-        <v>2.17553536494573</v>
+        <v>2.201383916536967</v>
       </c>
       <c r="L76">
-        <v>42.12022892955127</v>
+        <v>48.6586556539798</v>
       </c>
       <c r="M76">
-        <v>43.79086566568099</v>
+        <v>50.51317522891463</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -3369,34 +3384,34 @@
         <v>89</v>
       </c>
       <c r="B77">
-        <v>2.064753293991089</v>
+        <v>2.178961515426636</v>
       </c>
       <c r="C77">
-        <v>2.064753293991089</v>
+        <v>2.207219839096069</v>
       </c>
       <c r="D77">
-        <v>2.0328528881073</v>
+        <v>2.168447732925415</v>
       </c>
       <c r="E77">
-        <v>2.0328528881073</v>
+        <v>2.20416259765625</v>
       </c>
       <c r="F77">
-        <v>340695</v>
+        <v>322606</v>
       </c>
       <c r="G77">
-        <v>2.140776703274049</v>
+        <v>2.188196459308898</v>
       </c>
       <c r="H77">
-        <v>2.184406346082687</v>
+        <v>2.184015500545502</v>
       </c>
       <c r="I77">
-        <v>2.17164922952652</v>
+        <v>2.202353525161743</v>
       </c>
       <c r="L77">
-        <v>39.12647597280431</v>
+        <v>54.02161762943241</v>
       </c>
       <c r="M77">
-        <v>41.89002121791369</v>
+        <v>53.43582161286509</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -3404,34 +3419,34 @@
         <v>90</v>
       </c>
       <c r="B78">
-        <v>2.03261923789978</v>
+        <v>2.20239520072937</v>
       </c>
       <c r="C78">
-        <v>2.046160697937012</v>
+        <v>2.20239520072937</v>
       </c>
       <c r="D78">
-        <v>1.978086829185486</v>
+        <v>2.169035196304321</v>
       </c>
       <c r="E78">
-        <v>2.026306629180908</v>
+        <v>2.183671474456787</v>
       </c>
       <c r="F78">
-        <v>57292</v>
+        <v>219436</v>
       </c>
       <c r="G78">
-        <v>2.130370332901946</v>
+        <v>2.187785097049615</v>
       </c>
       <c r="H78">
-        <v>2.176664227247238</v>
+        <v>2.185439121723175</v>
       </c>
       <c r="I78">
-        <v>2.166456973552704</v>
+        <v>2.20019969145457</v>
       </c>
       <c r="L78">
-        <v>38.55404812275967</v>
+        <v>47.8469518233201</v>
       </c>
       <c r="M78">
-        <v>41.52954393231814</v>
+        <v>49.94721633421637</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -3439,34 +3454,34 @@
         <v>91</v>
       </c>
       <c r="B79">
-        <v>2.02695369720459</v>
+        <v>2.1793053150177</v>
       </c>
       <c r="C79">
-        <v>2.033657789230347</v>
+        <v>2.200650215148926</v>
       </c>
       <c r="D79">
-        <v>1.982962965965271</v>
+        <v>2.166096448898315</v>
       </c>
       <c r="E79">
-        <v>1.984108090400696</v>
+        <v>2.198951244354248</v>
       </c>
       <c r="F79">
-        <v>8070</v>
+        <v>0</v>
       </c>
       <c r="G79">
-        <v>2.117073765401832</v>
+        <v>2.188800201350036</v>
       </c>
       <c r="H79">
-        <v>2.156838238239288</v>
+        <v>2.186333453655243</v>
       </c>
       <c r="I79">
-        <v>2.160256592432658</v>
+        <v>2.198028294245402</v>
       </c>
       <c r="L79">
-        <v>34.85590942040712</v>
+        <v>52.41009678994546</v>
       </c>
       <c r="M79">
-        <v>39.18847295154018</v>
+        <v>52.44061272275081</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -3474,34 +3489,34 @@
         <v>92</v>
       </c>
       <c r="B80">
-        <v>1.984669208526612</v>
+        <v>2.203899145126343</v>
       </c>
       <c r="C80">
-        <v>2.002665519714355</v>
+        <v>2.21151876449585</v>
       </c>
       <c r="D80">
-        <v>1.932535409927368</v>
+        <v>2.186301469802856</v>
       </c>
       <c r="E80">
-        <v>1.994321465492248</v>
+        <v>2.197213888168335</v>
       </c>
       <c r="F80">
-        <v>190400</v>
+        <v>31663</v>
       </c>
       <c r="G80">
-        <v>2.105914465410052</v>
+        <v>2.189565081969882</v>
       </c>
       <c r="H80">
-        <v>2.134465473890304</v>
+        <v>2.189321315288544</v>
       </c>
       <c r="I80">
-        <v>2.155161758263906</v>
+        <v>2.195524350802104</v>
       </c>
       <c r="L80">
-        <v>36.51402721766535</v>
+        <v>51.83001335540893</v>
       </c>
       <c r="M80">
-        <v>40.06904554900391</v>
+        <v>52.12267175357069</v>
       </c>
     </row>
     <row r="81" spans="1:15">
@@ -3509,34 +3524,34 @@
         <v>93</v>
       </c>
       <c r="B81">
-        <v>2.005052328109741</v>
+        <v>2.198067426681519</v>
       </c>
       <c r="C81">
-        <v>2.005052328109741</v>
+        <v>2.210183620452881</v>
       </c>
       <c r="D81">
-        <v>1.965694308280945</v>
+        <v>2.192571401596069</v>
       </c>
       <c r="E81">
-        <v>1.997359991073608</v>
+        <v>2.201735019683838</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>13926</v>
       </c>
       <c r="G81">
-        <v>2.096045876834011</v>
+        <v>2.190671439943877</v>
       </c>
       <c r="H81">
-        <v>2.120743864774704</v>
+        <v>2.190305233001709</v>
       </c>
       <c r="I81">
-        <v>2.151681045691172</v>
+        <v>2.192816042900085</v>
       </c>
       <c r="L81">
-        <v>37.05029314575414</v>
+        <v>53.34188016819891</v>
       </c>
       <c r="M81">
-        <v>40.34580251660635</v>
+        <v>52.92256945094019</v>
       </c>
     </row>
     <row r="82" spans="1:15">
@@ -3544,34 +3559,34 @@
         <v>94</v>
       </c>
       <c r="B82">
-        <v>1.997496485710144</v>
+        <v>2.201782941818237</v>
       </c>
       <c r="C82">
-        <v>2.001630544662476</v>
+        <v>2.208556652069092</v>
       </c>
       <c r="D82">
-        <v>1.973825812339783</v>
+        <v>2.170284748077393</v>
       </c>
       <c r="E82">
-        <v>1.973825812339783</v>
+        <v>2.177382946014404</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>19530</v>
       </c>
       <c r="G82">
-        <v>2.08493496187999</v>
+        <v>2.189463395041198</v>
       </c>
       <c r="H82">
-        <v>2.097517001628876</v>
+        <v>2.190828740596771</v>
       </c>
       <c r="I82">
-        <v>2.146654462814331</v>
+        <v>2.190841730435689</v>
       </c>
       <c r="L82">
-        <v>34.51026029210433</v>
+        <v>44.81810759172615</v>
       </c>
       <c r="M82">
-        <v>38.84938643381266</v>
+        <v>48.24686422916366</v>
       </c>
     </row>
     <row r="83" spans="1:15">
@@ -3579,34 +3594,34 @@
         <v>95</v>
       </c>
       <c r="B83">
-        <v>1.966011762619018</v>
+        <v>2.174038410186768</v>
       </c>
       <c r="C83">
-        <v>1.998765707015991</v>
+        <v>2.18162727355957</v>
       </c>
       <c r="D83">
-        <v>1.962580442428589</v>
+        <v>2.164787292480469</v>
       </c>
       <c r="E83">
-        <v>1.975164771080017</v>
+        <v>2.172356605529785</v>
       </c>
       <c r="F83">
-        <v>28285</v>
+        <v>12665</v>
       </c>
       <c r="G83">
-        <v>2.074955853625447</v>
+        <v>2.187908232358342</v>
       </c>
       <c r="H83">
-        <v>2.076721876859665</v>
+        <v>2.190656399726868</v>
       </c>
       <c r="I83">
-        <v>2.141383771101634</v>
+        <v>2.188696837425232</v>
       </c>
       <c r="L83">
-        <v>34.79637494258377</v>
+        <v>43.21463029875765</v>
       </c>
       <c r="M83">
-        <v>38.98803706052138</v>
+        <v>47.3176202933021</v>
       </c>
     </row>
     <row r="84" spans="1:15">
@@ -3614,34 +3629,34 @@
         <v>96</v>
       </c>
       <c r="B84">
-        <v>1.982002139091492</v>
+        <v>2.164106130599976</v>
       </c>
       <c r="C84">
-        <v>1.992246747016907</v>
+        <v>2.178544759750366</v>
       </c>
       <c r="D84">
-        <v>1.926014423370361</v>
+        <v>2.131392240524292</v>
       </c>
       <c r="E84">
-        <v>1.970582604408264</v>
+        <v>2.176938056945801</v>
       </c>
       <c r="F84">
-        <v>517677</v>
+        <v>63612</v>
       </c>
       <c r="G84">
-        <v>2.065467376423885</v>
+        <v>2.186910943684475</v>
       </c>
       <c r="H84">
-        <v>2.060994589328766</v>
+        <v>2.191607618331909</v>
       </c>
       <c r="I84">
-        <v>2.136996459960938</v>
+        <v>2.186025341351827</v>
       </c>
       <c r="L84">
-        <v>34.22078524360438</v>
+        <v>45.22419400946802</v>
       </c>
       <c r="M84">
-        <v>38.66494463132513</v>
+        <v>48.29514519830185</v>
       </c>
     </row>
     <row r="85" spans="1:15">
@@ -3649,34 +3664,34 @@
         <v>97</v>
       </c>
       <c r="B85">
-        <v>1.980967164039612</v>
+        <v>2.182242155075073</v>
       </c>
       <c r="C85">
-        <v>1.987747430801392</v>
+        <v>2.188196420669556</v>
       </c>
       <c r="D85">
-        <v>1.950621366500854</v>
+        <v>2.168817520141602</v>
       </c>
       <c r="E85">
-        <v>1.974830985069275</v>
+        <v>2.173660039901733</v>
       </c>
       <c r="F85">
-        <v>137158</v>
+        <v>17506</v>
       </c>
       <c r="G85">
-        <v>2.057227704482557</v>
+        <v>2.185706316067862</v>
       </c>
       <c r="H85">
-        <v>2.049337655305862</v>
+        <v>2.192823016643524</v>
       </c>
       <c r="I85">
-        <v>2.132942608992259</v>
+        <v>2.184304579099019</v>
       </c>
       <c r="L85">
-        <v>35.33647501154806</v>
+        <v>43.97163391909352</v>
       </c>
       <c r="M85">
-        <v>39.16828607296132</v>
+        <v>47.61438612008694</v>
       </c>
     </row>
     <row r="86" spans="1:15">
@@ -3684,34 +3699,34 @@
         <v>98</v>
       </c>
       <c r="B86">
-        <v>1.975356936454773</v>
+        <v>2.174629211425781</v>
       </c>
       <c r="C86">
-        <v>2.131088256835937</v>
+        <v>2.176957130432129</v>
       </c>
       <c r="D86">
-        <v>1.951491475105286</v>
+        <v>2.152586698532104</v>
       </c>
       <c r="E86">
-        <v>2.080008745193481</v>
+        <v>2.176934480667114</v>
       </c>
       <c r="F86">
-        <v>1526450</v>
+        <v>97191</v>
       </c>
       <c r="G86">
-        <v>2.05929870818355</v>
+        <v>2.184908876485975</v>
       </c>
       <c r="H86">
-        <v>2.04347248673439</v>
+        <v>2.192020237445831</v>
       </c>
       <c r="I86">
-        <v>2.13270327647527</v>
+        <v>2.184157752990723</v>
       </c>
       <c r="L86">
-        <v>56.08284052027354</v>
+        <v>45.66286489590363</v>
       </c>
       <c r="M86">
-        <v>50.08867702752963</v>
+        <v>48.39687217459266</v>
       </c>
     </row>
     <row r="87" spans="1:15">
@@ -3719,34 +3734,34 @@
         <v>99</v>
       </c>
       <c r="B87">
-        <v>2.080610990524292</v>
+        <v>2.17693018913269</v>
       </c>
       <c r="C87">
-        <v>2.196337938308716</v>
+        <v>2.178409814834595</v>
       </c>
       <c r="D87">
-        <v>2.080610990524292</v>
+        <v>2.159700393676758</v>
       </c>
       <c r="E87">
-        <v>2.175441980361938</v>
+        <v>2.16604471206665</v>
       </c>
       <c r="F87">
-        <v>8831230</v>
+        <v>0</v>
       </c>
       <c r="G87">
-        <v>2.069857187472494</v>
+        <v>2.183193952447855</v>
       </c>
       <c r="H87">
-        <v>2.041623383760452</v>
+        <v>2.190117359161377</v>
       </c>
       <c r="I87">
-        <v>2.128002599875132</v>
+        <v>2.183506615956624</v>
       </c>
       <c r="L87">
-        <v>66.91738640392204</v>
+        <v>41.02922464901143</v>
       </c>
       <c r="M87">
-        <v>57.53730232280731</v>
+        <v>45.93925242354833</v>
       </c>
     </row>
     <row r="88" spans="1:15">
@@ -3754,34 +3769,34 @@
         <v>100</v>
       </c>
       <c r="B88">
-        <v>2.176146984100342</v>
+        <v>2.163243055343628</v>
       </c>
       <c r="C88">
-        <v>2.196250915527344</v>
+        <v>2.228545188903809</v>
       </c>
       <c r="D88">
-        <v>2.143882751464844</v>
+        <v>2.157707214355469</v>
       </c>
       <c r="E88">
-        <v>2.175074338912964</v>
+        <v>2.17720627784729</v>
       </c>
       <c r="F88">
-        <v>1969819</v>
+        <v>2457729</v>
       </c>
       <c r="G88">
-        <v>2.079422383057991</v>
+        <v>2.182649618393258</v>
       </c>
       <c r="H88">
-        <v>2.045962888002395</v>
+        <v>2.188119828701019</v>
       </c>
       <c r="I88">
-        <v>2.127800110975901</v>
+        <v>2.18424019018809</v>
       </c>
       <c r="L88">
-        <v>66.84591559595583</v>
+        <v>47.20652095224515</v>
       </c>
       <c r="M88">
-        <v>57.50170090915329</v>
+        <v>48.80861499364206</v>
       </c>
     </row>
     <row r="89" spans="1:15">
@@ -3789,34 +3804,34 @@
         <v>101</v>
       </c>
       <c r="B89">
-        <v>2.184719800949097</v>
+        <v>2.177339315414429</v>
       </c>
       <c r="C89">
-        <v>2.284442663192749</v>
+        <v>2.314668416976929</v>
       </c>
       <c r="D89">
-        <v>2.183571577072144</v>
+        <v>2.17321515083313</v>
       </c>
       <c r="E89">
-        <v>2.248286485671997</v>
+        <v>2.263674974441528</v>
       </c>
       <c r="F89">
-        <v>8156827</v>
+        <v>15433635</v>
       </c>
       <c r="G89">
-        <v>2.09477366511381</v>
+        <v>2.190015559852192</v>
       </c>
       <c r="H89">
-        <v>2.059537577629089</v>
+        <v>2.192767322063446</v>
       </c>
       <c r="I89">
-        <v>2.123388731479645</v>
+        <v>2.186993869145711</v>
       </c>
       <c r="L89">
-        <v>73.24723611167917</v>
+        <v>72.40208787653887</v>
       </c>
       <c r="M89">
-        <v>62.48043465720772</v>
+        <v>64.51977420426711</v>
       </c>
       <c r="O89" t="s">
         <v>195</v>
@@ -3827,37 +3842,34 @@
         <v>102</v>
       </c>
       <c r="B90">
-        <v>2.24719500541687</v>
+        <v>2.26690673828125</v>
       </c>
       <c r="C90">
-        <v>2.358819961547852</v>
+        <v>2.321119070053101</v>
       </c>
       <c r="D90">
-        <v>2.202268838882446</v>
+        <v>2.195211887359619</v>
       </c>
       <c r="E90">
-        <v>2.264093160629272</v>
+        <v>2.212074041366577</v>
       </c>
       <c r="F90">
-        <v>15512300</v>
+        <v>6484902</v>
       </c>
       <c r="G90">
-        <v>2.110166346524306</v>
+        <v>2.192020876353499</v>
       </c>
       <c r="H90">
-        <v>2.072469854354858</v>
+        <v>2.193295121192932</v>
       </c>
       <c r="I90">
-        <v>2.11746594508489</v>
+        <v>2.189481115341187</v>
       </c>
       <c r="L90">
-        <v>74.44565116789511</v>
+        <v>54.83337349121967</v>
       </c>
       <c r="M90">
-        <v>63.47532625453803</v>
-      </c>
-      <c r="O90" t="s">
-        <v>195</v>
+        <v>53.89043299290198</v>
       </c>
     </row>
     <row r="91" spans="1:15">
@@ -3865,37 +3877,34 @@
         <v>103</v>
       </c>
       <c r="B91">
-        <v>2.260720252990723</v>
+        <v>2.204820156097412</v>
       </c>
       <c r="C91">
-        <v>2.300270557403564</v>
+        <v>2.228924512863159</v>
       </c>
       <c r="D91">
-        <v>2.255612134933472</v>
+        <v>2.184865713119507</v>
       </c>
       <c r="E91">
-        <v>2.272332191467285</v>
+        <v>2.196331262588501</v>
       </c>
       <c r="F91">
-        <v>1057192</v>
+        <v>2297530</v>
       </c>
       <c r="G91">
-        <v>2.124908696064577</v>
+        <v>2.19241272964759</v>
       </c>
       <c r="H91">
-        <v>2.084970641136169</v>
+        <v>2.193312168121338</v>
       </c>
       <c r="I91">
-        <v>2.117483945687612</v>
+        <v>2.189956935246785</v>
       </c>
       <c r="L91">
-        <v>75.09973101272963</v>
+        <v>50.61769378823261</v>
       </c>
       <c r="M91">
-        <v>64.01100932380157</v>
-      </c>
-      <c r="O91" t="s">
-        <v>195</v>
+        <v>51.12323424820954</v>
       </c>
     </row>
     <row r="92" spans="1:15">
@@ -3903,37 +3912,34 @@
         <v>104</v>
       </c>
       <c r="B92">
-        <v>2.27318286895752</v>
+        <v>2.187450885772705</v>
       </c>
       <c r="C92">
-        <v>2.295251846313477</v>
+        <v>2.200891971588135</v>
       </c>
       <c r="D92">
-        <v>2.255055904388428</v>
+        <v>2.142762899398804</v>
       </c>
       <c r="E92">
-        <v>2.282984256744385</v>
+        <v>2.148180484771729</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>675402</v>
       </c>
       <c r="G92">
-        <v>2.139279201580923</v>
+        <v>2.188391616477057</v>
       </c>
       <c r="H92">
-        <v>2.095600473880768</v>
+        <v>2.19097146987915</v>
       </c>
       <c r="I92">
-        <v>2.112304651737213</v>
+        <v>2.189332524935404</v>
       </c>
       <c r="L92">
-        <v>75.9934597775012</v>
+        <v>40.02843255734883</v>
       </c>
       <c r="M92">
-        <v>64.73121160003568</v>
-      </c>
-      <c r="O92" t="s">
-        <v>195</v>
+        <v>43.7273743267781</v>
       </c>
     </row>
     <row r="93" spans="1:15">
@@ -3941,34 +3947,34 @@
         <v>105</v>
       </c>
       <c r="B93">
-        <v>2.283014297485352</v>
+        <v>2.144751787185669</v>
       </c>
       <c r="C93">
-        <v>2.337480783462524</v>
+        <v>2.188942193984985</v>
       </c>
       <c r="D93">
-        <v>2.221897840499878</v>
+        <v>2.133743762969971</v>
       </c>
       <c r="E93">
-        <v>2.236612319946289</v>
+        <v>2.182419300079346</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>573724</v>
       </c>
       <c r="G93">
-        <v>2.148127666886865</v>
+        <v>2.18784867862272</v>
       </c>
       <c r="H93">
-        <v>2.100420999526977</v>
+        <v>2.190574932098388</v>
       </c>
       <c r="I93">
-        <v>2.107156153519948</v>
+        <v>2.189553054173787</v>
       </c>
       <c r="L93">
-        <v>64.63224261307796</v>
+        <v>48.6259837680764</v>
       </c>
       <c r="M93">
-        <v>59.1790872456053</v>
+        <v>49.3396459527992</v>
       </c>
     </row>
     <row r="94" spans="1:15">
@@ -3976,34 +3982,34 @@
         <v>106</v>
       </c>
       <c r="B94">
-        <v>2.243919134140014</v>
+        <v>2.178292512893677</v>
       </c>
       <c r="C94">
-        <v>2.277171850204468</v>
+        <v>2.210748672485352</v>
       </c>
       <c r="D94">
-        <v>2.235666513442993</v>
+        <v>2.048505783081055</v>
       </c>
       <c r="E94">
-        <v>2.236703395843506</v>
+        <v>2.06663966178894</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>2010692</v>
       </c>
       <c r="G94">
-        <v>2.156180005882923</v>
+        <v>2.176829677092376</v>
       </c>
       <c r="H94">
-        <v>2.10460444688797</v>
+        <v>2.18392424583435</v>
       </c>
       <c r="I94">
-        <v>2.105541988213857</v>
+        <v>2.186510586738586</v>
       </c>
       <c r="L94">
-        <v>64.64392182328255</v>
+        <v>31.46548814882355</v>
       </c>
       <c r="M94">
-        <v>59.18649151625362</v>
+        <v>36.19412666375449</v>
       </c>
     </row>
     <row r="95" spans="1:15">
@@ -4011,34 +4017,34 @@
         <v>107</v>
       </c>
       <c r="B95">
-        <v>2.243687629699707</v>
+        <v>2.066684484481812</v>
       </c>
       <c r="C95">
-        <v>2.265678405761719</v>
+        <v>2.113234996795654</v>
       </c>
       <c r="D95">
-        <v>2.23927903175354</v>
+        <v>2.066550731658936</v>
       </c>
       <c r="E95">
-        <v>2.257082939147949</v>
+        <v>2.094967365264893</v>
       </c>
       <c r="F95">
         <v>0</v>
       </c>
       <c r="G95">
-        <v>2.165352999816108</v>
+        <v>2.169387648744423</v>
       </c>
       <c r="H95">
-        <v>2.111304044723511</v>
+        <v>2.177802383899689</v>
       </c>
       <c r="I95">
-        <v>2.107179097334544</v>
+        <v>2.184697763125102</v>
       </c>
       <c r="L95">
-        <v>67.35744542147044</v>
+        <v>37.53342206807082</v>
       </c>
       <c r="M95">
-        <v>60.89571780805748</v>
+        <v>40.37956295715582</v>
       </c>
     </row>
     <row r="96" spans="1:15">
@@ -4046,34 +4052,34 @@
         <v>108</v>
       </c>
       <c r="B96">
-        <v>2.24954080581665</v>
+        <v>2.086739063262939</v>
       </c>
       <c r="C96">
-        <v>2.25269603729248</v>
+        <v>2.114060163497925</v>
       </c>
       <c r="D96">
-        <v>2.222738027572632</v>
+        <v>2.080514192581177</v>
       </c>
       <c r="E96">
-        <v>2.225282907485962</v>
+        <v>2.106011152267456</v>
       </c>
       <c r="F96">
         <v>0</v>
       </c>
       <c r="G96">
-        <v>2.17080117324064</v>
+        <v>2.163626149064699</v>
       </c>
       <c r="H96">
-        <v>2.119162797927856</v>
+        <v>2.17382777929306</v>
       </c>
       <c r="I96">
-        <v>2.108111457029978</v>
+        <v>2.181798466046651</v>
       </c>
       <c r="L96">
-        <v>59.36003648126355</v>
+        <v>39.86845524909716</v>
       </c>
       <c r="M96">
-        <v>56.89198996950613</v>
+        <v>41.97752932238561</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -4081,34 +4087,34 @@
         <v>109</v>
       </c>
       <c r="B97">
-        <v>2.218446016311645</v>
+        <v>2.117296457290649</v>
       </c>
       <c r="C97">
-        <v>2.233132839202881</v>
+        <v>2.117296457290649</v>
       </c>
       <c r="D97">
-        <v>2.156367540359497</v>
+        <v>2.066128492355347</v>
       </c>
       <c r="E97">
-        <v>2.181339263916016</v>
+        <v>2.077553987503052</v>
       </c>
       <c r="F97">
-        <v>311566</v>
+        <v>0</v>
       </c>
       <c r="G97">
-        <v>2.171759181483856</v>
+        <v>2.155801407104549</v>
       </c>
       <c r="H97">
-        <v>2.126587116718292</v>
+        <v>2.167497348785401</v>
       </c>
       <c r="I97">
-        <v>2.107075297832489</v>
+        <v>2.177580189704895</v>
       </c>
       <c r="L97">
-        <v>50.11061693720686</v>
+        <v>35.97065307812007</v>
       </c>
       <c r="M97">
-        <v>51.82159528720187</v>
+        <v>39.07155691923194</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -4116,34 +4122,34 @@
         <v>110</v>
       </c>
       <c r="B98">
-        <v>2.188400030136108</v>
+        <v>2.082711935043335</v>
       </c>
       <c r="C98">
-        <v>2.216834306716919</v>
+        <v>2.109533309936523</v>
       </c>
       <c r="D98">
-        <v>2.109481573104858</v>
+        <v>2.049673795700073</v>
       </c>
       <c r="E98">
-        <v>2.1855788230896</v>
+        <v>2.102481842041016</v>
       </c>
       <c r="F98">
-        <v>335215</v>
+        <v>2530</v>
       </c>
       <c r="G98">
-        <v>2.173015512538924</v>
+        <v>2.150954173916955</v>
       </c>
       <c r="H98">
-        <v>2.134550726413727</v>
+        <v>2.163437867164612</v>
       </c>
       <c r="I98">
-        <v>2.110318450133006</v>
+        <v>2.173757688204447</v>
       </c>
       <c r="L98">
-        <v>50.94031905696311</v>
+        <v>41.59752975656639</v>
       </c>
       <c r="M98">
-        <v>52.26362291866934</v>
+        <v>42.80662315588866</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -4151,34 +4157,34 @@
         <v>111</v>
       </c>
       <c r="B99">
-        <v>2.189270973205566</v>
+        <v>2.103405475616455</v>
       </c>
       <c r="C99">
-        <v>2.210153341293335</v>
+        <v>2.114251613616944</v>
       </c>
       <c r="D99">
-        <v>2.087506771087646</v>
+        <v>2.093100547790528</v>
       </c>
       <c r="E99">
-        <v>2.15519905090332</v>
+        <v>2.10728120803833</v>
       </c>
       <c r="F99">
         <v>0</v>
       </c>
       <c r="G99">
-        <v>2.171395834208414</v>
+        <v>2.146983904291626</v>
       </c>
       <c r="H99">
-        <v>2.143105274438858</v>
+        <v>2.158854365348816</v>
       </c>
       <c r="I99">
-        <v>2.116265328725179</v>
+        <v>2.171642891565959</v>
       </c>
       <c r="L99">
-        <v>44.91815833634366</v>
+        <v>42.68842280944047</v>
       </c>
       <c r="M99">
-        <v>48.80792447348736</v>
+        <v>43.52445432984699</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -4186,34 +4192,34 @@
         <v>112</v>
       </c>
       <c r="B100">
-        <v>2.151651859283448</v>
+        <v>2.114075660705566</v>
       </c>
       <c r="C100">
-        <v>2.192238330841064</v>
+        <v>2.114114999771118</v>
       </c>
       <c r="D100">
-        <v>2.141095161437988</v>
+        <v>2.080485105514526</v>
       </c>
       <c r="E100">
-        <v>2.18106460571289</v>
+        <v>2.090562105178833</v>
       </c>
       <c r="F100">
-        <v>20334</v>
+        <v>0</v>
       </c>
       <c r="G100">
-        <v>2.172274813436094</v>
+        <v>2.141854649826826</v>
       </c>
       <c r="H100">
-        <v>2.15244243144989</v>
+        <v>2.153521776199341</v>
       </c>
       <c r="I100">
-        <v>2.122119228045146</v>
+        <v>2.167944359779358</v>
       </c>
       <c r="L100">
-        <v>50.52091949683416</v>
+        <v>39.77662939151747</v>
       </c>
       <c r="M100">
-        <v>51.73408938975751</v>
+        <v>41.56722639633015</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -4221,34 +4227,34 @@
         <v>113</v>
       </c>
       <c r="B101">
-        <v>2.173730611801147</v>
+        <v>2.090844869613647</v>
       </c>
       <c r="C101">
-        <v>2.183887004852295</v>
+        <v>2.104167699813843</v>
       </c>
       <c r="D101">
-        <v>2.137301921844482</v>
+        <v>2.085883617401123</v>
       </c>
       <c r="E101">
-        <v>2.13745665550232</v>
+        <v>2.096334457397461</v>
       </c>
       <c r="F101">
         <v>0</v>
       </c>
       <c r="G101">
-        <v>2.169109526351205</v>
+        <v>2.137716450515066</v>
       </c>
       <c r="H101">
-        <v>2.159447264671326</v>
+        <v>2.148251748085022</v>
       </c>
       <c r="I101">
-        <v>2.125957234700521</v>
+        <v>2.164622497558594</v>
       </c>
       <c r="L101">
-        <v>42.35043311708066</v>
+        <v>41.3309893191615</v>
       </c>
       <c r="M101">
-        <v>46.86981709632413</v>
+        <v>42.52814765620739</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -4256,34 +4262,34 @@
         <v>114</v>
       </c>
       <c r="B102">
-        <v>2.144574880599976</v>
+        <v>2.093292951583862</v>
       </c>
       <c r="C102">
-        <v>2.182334899902344</v>
+        <v>2.103598833084106</v>
       </c>
       <c r="D102">
-        <v>2.139952659606934</v>
+        <v>2.083541393280029</v>
       </c>
       <c r="E102">
-        <v>2.182056665420532</v>
+        <v>2.096617937088013</v>
       </c>
       <c r="F102">
         <v>0</v>
       </c>
       <c r="G102">
-        <v>2.170286538993871</v>
+        <v>2.133980222021697</v>
       </c>
       <c r="H102">
-        <v>2.169858807325363</v>
+        <v>2.144213497638702</v>
       </c>
       <c r="I102">
-        <v>2.129679536819458</v>
+        <v>2.161343280474345</v>
       </c>
       <c r="L102">
-        <v>51.39485323806059</v>
+        <v>41.41453001730744</v>
       </c>
       <c r="M102">
-        <v>51.85567749109096</v>
+        <v>42.57808929054895</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -4291,34 +4297,34 @@
         <v>115</v>
       </c>
       <c r="B103">
-        <v>2.178928852081299</v>
+        <v>2.096612691879272</v>
       </c>
       <c r="C103">
-        <v>2.178928852081299</v>
+        <v>2.115428447723389</v>
       </c>
       <c r="D103">
-        <v>2.162665843963623</v>
+        <v>2.095609903335572</v>
       </c>
       <c r="E103">
-        <v>2.166912794113159</v>
+        <v>2.115428447723389</v>
       </c>
       <c r="F103">
         <v>0</v>
       </c>
       <c r="G103">
-        <v>2.169979834913807</v>
+        <v>2.132293697085487</v>
       </c>
       <c r="H103">
-        <v>2.17944620847702</v>
+        <v>2.141367089748383</v>
       </c>
       <c r="I103">
-        <v>2.130569903055827</v>
+        <v>2.158845893541972</v>
       </c>
       <c r="L103">
-        <v>48.48894503124447</v>
+        <v>47.04362693470066</v>
       </c>
       <c r="M103">
-        <v>50.13527967197486</v>
+        <v>45.93534419320721</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -4326,34 +4332,34 @@
         <v>116</v>
       </c>
       <c r="B104">
-        <v>2.166913986206055</v>
+        <v>2.114389896392822</v>
       </c>
       <c r="C104">
-        <v>2.187296152114868</v>
+        <v>2.131414890289306</v>
       </c>
       <c r="D104">
-        <v>2.162770509719849</v>
+        <v>2.112056255340576</v>
       </c>
       <c r="E104">
-        <v>2.175803422927856</v>
+        <v>2.125920534133911</v>
       </c>
       <c r="F104">
         <v>0</v>
       </c>
       <c r="G104">
-        <v>2.170509252005993</v>
+        <v>2.131714318635344</v>
       </c>
       <c r="H104">
-        <v>2.189707249403</v>
+        <v>2.138816213607788</v>
       </c>
       <c r="I104">
-        <v>2.131328868865967</v>
+        <v>2.156388131777446</v>
       </c>
       <c r="L104">
-        <v>50.34328079588843</v>
+        <v>50.05493499404825</v>
       </c>
       <c r="M104">
-        <v>51.15972993711245</v>
+        <v>47.76966562476198</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -4361,34 +4367,34 @@
         <v>117</v>
       </c>
       <c r="B105">
-        <v>2.186420202255249</v>
+        <v>2.126510143280029</v>
       </c>
       <c r="C105">
-        <v>2.186420202255249</v>
+        <v>2.151837348937988</v>
       </c>
       <c r="D105">
-        <v>2.148239850997925</v>
+        <v>2.119777917861938</v>
       </c>
       <c r="E105">
-        <v>2.157913684844971</v>
+        <v>2.143843412399292</v>
       </c>
       <c r="F105">
         <v>0</v>
       </c>
       <c r="G105">
-        <v>2.1693642004459</v>
+        <v>2.132816963522976</v>
       </c>
       <c r="H105">
-        <v>2.198861384391785</v>
+        <v>2.137325382232666</v>
       </c>
       <c r="I105">
-        <v>2.132489625612895</v>
+        <v>2.153936092058818</v>
       </c>
       <c r="L105">
-        <v>46.54986553604736</v>
+        <v>54.97518641704472</v>
       </c>
       <c r="M105">
-        <v>48.9791840787371</v>
+        <v>50.83812924187218</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -4396,34 +4402,34 @@
         <v>118</v>
       </c>
       <c r="B106">
-        <v>2.152875185012817</v>
+        <v>2.15421199798584</v>
       </c>
       <c r="C106">
-        <v>2.167868375778198</v>
+        <v>2.162529706954956</v>
       </c>
       <c r="D106">
-        <v>2.138688087463379</v>
+        <v>2.143722534179688</v>
       </c>
       <c r="E106">
-        <v>2.149352073669434</v>
+        <v>2.161285877227783</v>
       </c>
       <c r="F106">
-        <v>57359</v>
+        <v>38727</v>
       </c>
       <c r="G106">
-        <v>2.167544916193494</v>
+        <v>2.135405046587049</v>
       </c>
       <c r="H106">
-        <v>2.202328550815582</v>
+        <v>2.1365429520607</v>
       </c>
       <c r="I106">
-        <v>2.135197766621908</v>
+        <v>2.15312884648641</v>
       </c>
       <c r="L106">
-        <v>44.73501646018852</v>
+        <v>59.35863231668086</v>
       </c>
       <c r="M106">
-        <v>47.92637940446411</v>
+        <v>53.68955402308237</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -4431,34 +4437,34 @@
         <v>119</v>
       </c>
       <c r="B107">
-        <v>2.155841588973999</v>
+        <v>2.160969734191895</v>
       </c>
       <c r="C107">
-        <v>2.200731515884399</v>
+        <v>2.163984298706055</v>
       </c>
       <c r="D107">
-        <v>2.142643451690674</v>
+        <v>2.146316051483154</v>
       </c>
       <c r="E107">
-        <v>2.192990064620972</v>
+        <v>2.146316051483154</v>
       </c>
       <c r="F107">
-        <v>59636</v>
+        <v>102104</v>
       </c>
       <c r="G107">
-        <v>2.169858111505083</v>
+        <v>2.136396956123059</v>
       </c>
       <c r="H107">
-        <v>2.203205955028534</v>
+        <v>2.135556519031525</v>
       </c>
       <c r="I107">
-        <v>2.140535672505697</v>
+        <v>2.15120062828064</v>
       </c>
       <c r="L107">
-        <v>54.83243829975738</v>
+        <v>54.25837677908963</v>
       </c>
       <c r="M107">
-        <v>53.42193529366408</v>
+        <v>50.95782286550191</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -4466,34 +4472,34 @@
         <v>120</v>
       </c>
       <c r="B108">
-        <v>2.194361448287964</v>
+        <v>2.14924693107605</v>
       </c>
       <c r="C108">
-        <v>2.205952167510986</v>
+        <v>2.162234544754028</v>
       </c>
       <c r="D108">
-        <v>2.177937507629395</v>
+        <v>2.139081001281738</v>
       </c>
       <c r="E108">
-        <v>2.204102277755737</v>
+        <v>2.142724514007568</v>
       </c>
       <c r="F108">
-        <v>27147</v>
+        <v>69132</v>
       </c>
       <c r="G108">
-        <v>2.17297121752787</v>
+        <v>2.136972188658014</v>
       </c>
       <c r="H108">
-        <v>2.204657351970673</v>
+        <v>2.133832430839539</v>
       </c>
       <c r="I108">
-        <v>2.146462194124858</v>
+        <v>2.149835729598999</v>
       </c>
       <c r="L108">
-        <v>57.07900134461834</v>
+        <v>53.02857757404898</v>
       </c>
       <c r="M108">
-        <v>54.73203785762527</v>
+        <v>50.29661913698472</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -4501,34 +4507,34 @@
         <v>121</v>
       </c>
       <c r="B109">
-        <v>2.206537485122681</v>
+        <v>2.140495538711548</v>
       </c>
       <c r="C109">
-        <v>2.230362415313721</v>
+        <v>2.147115230560303</v>
       </c>
       <c r="D109">
-        <v>2.195033311843872</v>
+        <v>2.134105205535889</v>
       </c>
       <c r="E109">
-        <v>2.217156887054444</v>
+        <v>2.139698982238769</v>
       </c>
       <c r="F109">
-        <v>22904</v>
+        <v>102168</v>
       </c>
       <c r="G109">
-        <v>2.17698809657574</v>
+        <v>2.137220078983537</v>
       </c>
       <c r="H109">
-        <v>2.203100872039795</v>
+        <v>2.127633631229401</v>
       </c>
       <c r="I109">
-        <v>2.154230487346649</v>
+        <v>2.14786065419515</v>
       </c>
       <c r="L109">
-        <v>59.72645096992977</v>
+        <v>51.91345858357282</v>
       </c>
       <c r="M109">
-        <v>56.28756244791935</v>
+        <v>49.71144274736102</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -4536,34 +4542,34 @@
         <v>122</v>
       </c>
       <c r="B110">
-        <v>2.214672803878784</v>
+        <v>2.139035940170288</v>
       </c>
       <c r="C110">
-        <v>2.216608285903931</v>
+        <v>2.139448881149292</v>
       </c>
       <c r="D110">
-        <v>2.163096189498901</v>
+        <v>2.123721837997437</v>
       </c>
       <c r="E110">
-        <v>2.170725107192993</v>
+        <v>2.127426385879517</v>
       </c>
       <c r="F110">
-        <v>200015</v>
+        <v>47775</v>
       </c>
       <c r="G110">
-        <v>2.176418733904581</v>
+        <v>2.136329743246808</v>
       </c>
       <c r="H110">
-        <v>2.198432469367981</v>
+        <v>2.123401248455048</v>
       </c>
       <c r="I110">
-        <v>2.160110608736674</v>
+        <v>2.145534404118856</v>
       </c>
       <c r="L110">
-        <v>47.90342970193152</v>
+        <v>47.36794429738264</v>
       </c>
       <c r="M110">
-        <v>49.74069001109757</v>
+        <v>47.30711387552387</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -4571,34 +4577,34 @@
         <v>123</v>
       </c>
       <c r="B111">
-        <v>2.17523980140686</v>
+        <v>2.129710674285889</v>
       </c>
       <c r="C111">
-        <v>2.206996202468872</v>
+        <v>2.131425380706787</v>
       </c>
       <c r="D111">
-        <v>2.1692054271698</v>
+        <v>2.123115301132202</v>
       </c>
       <c r="E111">
-        <v>2.201518058776855</v>
+        <v>2.127890110015869</v>
       </c>
       <c r="F111">
-        <v>284743</v>
+        <v>16028</v>
       </c>
       <c r="G111">
-        <v>2.178700490711151</v>
+        <v>2.135562503862177</v>
       </c>
       <c r="H111">
-        <v>2.19489176273346</v>
+        <v>2.119979190826416</v>
       </c>
       <c r="I111">
-        <v>2.166915877660116</v>
+        <v>2.143072907129924</v>
       </c>
       <c r="L111">
-        <v>54.60744370047144</v>
+        <v>47.56311549047162</v>
       </c>
       <c r="M111">
-        <v>53.5954936883994</v>
+        <v>47.41061463409027</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -4606,1762 +4612,1762 @@
         <v>124</v>
       </c>
       <c r="B112">
-        <v>2.19355034828186</v>
+        <v>2.129340171813965</v>
       </c>
       <c r="C112">
-        <v>2.215277671813965</v>
+        <v>2.129340171813965</v>
       </c>
       <c r="D112">
-        <v>2.193427324295044</v>
+        <v>2.069262981414795</v>
       </c>
       <c r="E112">
-        <v>2.195990324020386</v>
+        <v>2.07650899887085</v>
       </c>
       <c r="F112">
-        <v>81931</v>
+        <v>295188</v>
       </c>
       <c r="G112">
-        <v>2.180272293739264</v>
+        <v>2.13019400340842</v>
       </c>
       <c r="H112">
-        <v>2.190542066097259</v>
+        <v>2.116395616531372</v>
       </c>
       <c r="I112">
-        <v>2.174321361382802</v>
+        <v>2.139710442225138</v>
       </c>
       <c r="L112">
-        <v>53.22424774531877</v>
+        <v>32.52770901690144</v>
       </c>
       <c r="M112">
-        <v>52.81242046321856</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13">
+        <v>38.40845251154554</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
       <c r="A113" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B113">
-        <v>2.195356130599976</v>
+        <v>2.071510314941406</v>
       </c>
       <c r="C113">
-        <v>2.209043264389038</v>
+        <v>2.086785078048706</v>
       </c>
       <c r="D113">
-        <v>2.175640344619751</v>
+        <v>2.068123340606689</v>
       </c>
       <c r="E113">
-        <v>2.194994449615479</v>
+        <v>2.08178448677063</v>
       </c>
       <c r="F113">
-        <v>318928</v>
+        <v>52575</v>
       </c>
       <c r="G113">
-        <v>2.181610671546192</v>
+        <v>2.12579313825953</v>
       </c>
       <c r="H113">
-        <v>2.188461172580719</v>
+        <v>2.111363875865936</v>
       </c>
       <c r="I113">
-        <v>2.181649017333984</v>
+        <v>2.136691371599833</v>
       </c>
       <c r="L113">
-        <v>52.95239895723133</v>
+        <v>34.90458721165461</v>
       </c>
       <c r="M113">
-        <v>52.66313316744604</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13">
+        <v>39.67497406360413</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
       <c r="A114" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B114">
-        <v>2.192103862762451</v>
+        <v>2.075049161911011</v>
       </c>
       <c r="C114">
-        <v>2.228638410568237</v>
+        <v>2.08119535446167</v>
       </c>
       <c r="D114">
-        <v>2.164047002792358</v>
+        <v>2.023346185684204</v>
       </c>
       <c r="E114">
-        <v>2.19035005569458</v>
+        <v>2.037274360656738</v>
       </c>
       <c r="F114">
-        <v>2256345</v>
+        <v>330128</v>
       </c>
       <c r="G114">
-        <v>2.182405161014227</v>
+        <v>2.117745976659276</v>
       </c>
       <c r="H114">
-        <v>2.186143505573273</v>
+        <v>2.109895610809326</v>
       </c>
       <c r="I114">
-        <v>2.188974599043528</v>
+        <v>2.132035915056865</v>
       </c>
       <c r="L114">
-        <v>51.57043826238356</v>
+        <v>26.15805900623715</v>
       </c>
       <c r="M114">
-        <v>51.92594166463599</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13">
+        <v>33.42905387229547</v>
+      </c>
+      <c r="N114" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
       <c r="A115" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B115">
-        <v>2.189973592758179</v>
+        <v>2.038064956665039</v>
       </c>
       <c r="C115">
-        <v>2.217072248458862</v>
+        <v>2.053332328796387</v>
       </c>
       <c r="D115">
-        <v>2.174107313156128</v>
+        <v>2.02639389038086</v>
       </c>
       <c r="E115">
-        <v>2.199653387069702</v>
+        <v>2.039790868759156</v>
       </c>
       <c r="F115">
-        <v>77729</v>
+        <v>46726</v>
       </c>
       <c r="G115">
-        <v>2.183973181564725</v>
+        <v>2.110659148668356</v>
       </c>
       <c r="H115">
-        <v>2.18327202796936</v>
+        <v>2.107136785984039</v>
       </c>
       <c r="I115">
-        <v>2.196468679110209</v>
+        <v>2.127573609352112</v>
       </c>
       <c r="L115">
-        <v>54.26050691130304</v>
+        <v>27.31651874658595</v>
       </c>
       <c r="M115">
-        <v>53.33509464073475</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13">
+        <v>34.06109552223289</v>
+      </c>
+      <c r="N115" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
       <c r="A116" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B116">
-        <v>2.199975252151489</v>
+        <v>2.037342071533203</v>
       </c>
       <c r="C116">
-        <v>2.220998287200928</v>
+        <v>2.048718690872192</v>
       </c>
       <c r="D116">
-        <v>2.181054830551147</v>
+        <v>2.012682676315308</v>
       </c>
       <c r="E116">
-        <v>2.21740460395813</v>
+        <v>2.016295433044434</v>
       </c>
       <c r="F116">
-        <v>79691</v>
+        <v>57534</v>
       </c>
       <c r="G116">
-        <v>2.187012401782307</v>
+        <v>2.102080629066182</v>
       </c>
       <c r="H116">
-        <v>2.182878112792969</v>
+        <v>2.102651000022888</v>
       </c>
       <c r="I116">
-        <v>2.201048541069031</v>
+        <v>2.122218974431356</v>
       </c>
       <c r="L116">
-        <v>59.13316552780039</v>
+        <v>23.45199998974858</v>
       </c>
       <c r="M116">
-        <v>55.98610533205107</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13">
+        <v>31.09290282672526</v>
+      </c>
+      <c r="N116" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
       <c r="A117" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B117">
-        <v>2.213988304138184</v>
+        <v>2.019634008407593</v>
       </c>
       <c r="C117">
-        <v>2.21916937828064</v>
+        <v>2.033807754516602</v>
       </c>
       <c r="D117">
-        <v>2.166433811187744</v>
+        <v>1.957271099090576</v>
       </c>
       <c r="E117">
-        <v>2.185503244400024</v>
+        <v>1.968413591384888</v>
       </c>
       <c r="F117">
-        <v>347788</v>
+        <v>237413</v>
       </c>
       <c r="G117">
-        <v>2.186875205656645</v>
+        <v>2.089929080186064</v>
       </c>
       <c r="H117">
-        <v>2.183086311817169</v>
+        <v>2.09719398021698</v>
       </c>
       <c r="I117">
-        <v>2.201383916536967</v>
+        <v>2.11563127040863</v>
       </c>
       <c r="L117">
-        <v>48.65399855902018</v>
+        <v>17.70834936345138</v>
       </c>
       <c r="M117">
-        <v>50.44030143987342</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13">
+        <v>26.10103348235503</v>
+      </c>
+      <c r="N117" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
       <c r="A118" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B118">
-        <v>2.178961515426636</v>
+        <v>1.959343671798706</v>
       </c>
       <c r="C118">
-        <v>2.207219839096069</v>
+        <v>2.128264904022217</v>
       </c>
       <c r="D118">
-        <v>2.168447732925415</v>
+        <v>1.956442832946777</v>
       </c>
       <c r="E118">
-        <v>2.20416259765625</v>
+        <v>2.022730112075806</v>
       </c>
       <c r="F118">
-        <v>322606</v>
+        <v>11141497</v>
       </c>
       <c r="G118">
-        <v>2.188446786747519</v>
+        <v>2.083820083085131</v>
       </c>
       <c r="H118">
-        <v>2.184015500545502</v>
+        <v>2.093206393718719</v>
       </c>
       <c r="I118">
-        <v>2.202353525161743</v>
+        <v>2.110482064882914</v>
       </c>
       <c r="L118">
-        <v>54.01616994111901</v>
+        <v>37.30406512698858</v>
       </c>
       <c r="M118">
-        <v>53.35100906377721</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13">
+        <v>38.21836798025873</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
       <c r="A119" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B119">
-        <v>2.20239520072937</v>
+        <v>2.027461528778076</v>
       </c>
       <c r="C119">
-        <v>2.20239520072937</v>
+        <v>2.033918857574463</v>
       </c>
       <c r="D119">
-        <v>2.169035196304321</v>
+        <v>1.94739294052124</v>
       </c>
       <c r="E119">
-        <v>2.183671474456787</v>
+        <v>1.950159430503845</v>
       </c>
       <c r="F119">
-        <v>219436</v>
+        <v>2302033</v>
       </c>
       <c r="G119">
-        <v>2.188012667448361</v>
+        <v>2.071669114668651</v>
       </c>
       <c r="H119">
-        <v>2.185439121723175</v>
+        <v>2.085350304841995</v>
       </c>
       <c r="I119">
-        <v>2.20019969145457</v>
+        <v>2.100031546751658</v>
       </c>
       <c r="L119">
-        <v>47.84342887778903</v>
+        <v>27.47145530135516</v>
       </c>
       <c r="M119">
-        <v>49.88601420670678</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13">
+        <v>30.92276768820024</v>
+      </c>
+      <c r="N119" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14">
       <c r="A120" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B120">
-        <v>2.1793053150177</v>
+        <v>1.959297895431518</v>
       </c>
       <c r="C120">
-        <v>2.200650215148926</v>
+        <v>1.965715408325196</v>
       </c>
       <c r="D120">
-        <v>2.166096448898315</v>
+        <v>1.88789165019989</v>
       </c>
       <c r="E120">
-        <v>2.198951244354248</v>
+        <v>1.910078883171081</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>2198422</v>
       </c>
       <c r="G120">
-        <v>2.189007083530714</v>
+        <v>2.056979093623417</v>
       </c>
       <c r="H120">
-        <v>2.186333453655243</v>
+        <v>2.076326143741608</v>
       </c>
       <c r="I120">
-        <v>2.198028294245402</v>
+        <v>2.089965041478475</v>
       </c>
       <c r="L120">
-        <v>52.40600386764102</v>
+        <v>23.6055460091444</v>
       </c>
       <c r="M120">
-        <v>52.370147666295</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13">
+        <v>27.76980488173703</v>
+      </c>
+      <c r="N120" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14">
       <c r="A121" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B121">
-        <v>2.203899145126343</v>
+        <v>1.913158535957336</v>
       </c>
       <c r="C121">
-        <v>2.21151876449585</v>
+        <v>2.010731935501098</v>
       </c>
       <c r="D121">
-        <v>2.186301469802856</v>
+        <v>1.90346908569336</v>
       </c>
       <c r="E121">
-        <v>2.197213888168335</v>
+        <v>1.966614007949829</v>
       </c>
       <c r="F121">
-        <v>31663</v>
+        <v>3059146</v>
       </c>
       <c r="G121">
-        <v>2.189753156679589</v>
+        <v>2.048764085834909</v>
       </c>
       <c r="H121">
-        <v>2.189321315288544</v>
+        <v>2.069840121269226</v>
       </c>
       <c r="I121">
-        <v>2.195524350802104</v>
+        <v>2.082307799657186</v>
       </c>
       <c r="L121">
-        <v>51.82607612493005</v>
+        <v>37.55100152451186</v>
       </c>
       <c r="M121">
-        <v>52.05419035528731</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13">
+        <v>37.45681741915327</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14">
       <c r="A122" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B122">
-        <v>2.198067426681519</v>
+        <v>1.97403085231781</v>
       </c>
       <c r="C122">
-        <v>2.210183620452881</v>
+        <v>1.98973023891449</v>
       </c>
       <c r="D122">
-        <v>2.192571401596069</v>
+        <v>1.944235563278198</v>
       </c>
       <c r="E122">
-        <v>2.201735019683838</v>
+        <v>1.944235563278198</v>
       </c>
       <c r="F122">
-        <v>13926</v>
+        <v>246274</v>
       </c>
       <c r="G122">
-        <v>2.190842416952703</v>
+        <v>2.039261492875208</v>
       </c>
       <c r="H122">
-        <v>2.190305233001709</v>
+        <v>2.062221002578736</v>
       </c>
       <c r="I122">
-        <v>2.192816042900085</v>
+        <v>2.075509635607402</v>
       </c>
       <c r="L122">
-        <v>53.33778778542584</v>
+        <v>34.72797835695395</v>
       </c>
       <c r="M122">
-        <v>52.85137080610583</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13">
+        <v>35.43121879557366</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14">
       <c r="A123" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B123">
-        <v>2.201782941818237</v>
+        <v>1.944445729255676</v>
       </c>
       <c r="C123">
-        <v>2.208556652069092</v>
+        <v>1.96972668170929</v>
       </c>
       <c r="D123">
-        <v>2.170284748077393</v>
+        <v>1.924161314964294</v>
       </c>
       <c r="E123">
-        <v>2.177382946014404</v>
+        <v>1.964160799980164</v>
       </c>
       <c r="F123">
-        <v>19530</v>
+        <v>144762</v>
       </c>
       <c r="G123">
-        <v>2.189618828685584</v>
+        <v>2.032434157157477</v>
       </c>
       <c r="H123">
-        <v>2.190828740596771</v>
+        <v>2.054657620191574</v>
       </c>
       <c r="I123">
-        <v>2.190841730435689</v>
+        <v>2.068234352270762</v>
       </c>
       <c r="L123">
-        <v>44.81598930932638</v>
+        <v>39.29901564477858</v>
       </c>
       <c r="M123">
-        <v>48.20248475831578</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13">
+        <v>38.61430199999111</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14">
       <c r="A124" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B124">
-        <v>2.174038410186768</v>
+        <v>1.975181460380554</v>
       </c>
       <c r="C124">
-        <v>2.18162727355957</v>
+        <v>1.975181460380554</v>
       </c>
       <c r="D124">
-        <v>2.164787292480469</v>
+        <v>1.919612288475037</v>
       </c>
       <c r="E124">
-        <v>2.172356605529785</v>
+        <v>1.927283763885498</v>
       </c>
       <c r="F124">
-        <v>12665</v>
+        <v>0</v>
       </c>
       <c r="G124">
-        <v>2.188049535671421</v>
+        <v>2.022875030496388</v>
       </c>
       <c r="H124">
-        <v>2.190656399726868</v>
+        <v>2.044725781679154</v>
       </c>
       <c r="I124">
-        <v>2.188696837425232</v>
+        <v>2.063589155673981</v>
       </c>
       <c r="L124">
-        <v>43.2128272720355</v>
+        <v>34.29796659134692</v>
       </c>
       <c r="M124">
-        <v>47.27809890886182</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13">
+        <v>35.15962941464137</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14">
       <c r="A125" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B125">
-        <v>2.164106130599976</v>
+        <v>1.923640727996826</v>
       </c>
       <c r="C125">
-        <v>2.178544759750366</v>
+        <v>1.974872946739197</v>
       </c>
       <c r="D125">
-        <v>2.131392240524292</v>
+        <v>1.923640727996826</v>
       </c>
       <c r="E125">
-        <v>2.176938056945801</v>
+        <v>1.969023466110229</v>
       </c>
       <c r="F125">
-        <v>63612</v>
+        <v>0</v>
       </c>
       <c r="G125">
-        <v>2.187039401241819</v>
+        <v>2.01797943373401</v>
       </c>
       <c r="H125">
-        <v>2.191607618331909</v>
+        <v>2.0359847843647</v>
       </c>
       <c r="I125">
-        <v>2.186025341351827</v>
+        <v>2.059391025702159</v>
       </c>
       <c r="L125">
-        <v>45.22216527059881</v>
+        <v>43.4598045796721</v>
       </c>
       <c r="M125">
-        <v>48.25221670578359</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13">
+        <v>41.53536064787625</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14">
       <c r="A126" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B126">
-        <v>2.182242155075073</v>
+        <v>1.959494948387146</v>
       </c>
       <c r="C126">
-        <v>2.188196420669556</v>
+        <v>1.994744658470154</v>
       </c>
       <c r="D126">
-        <v>2.168817520141602</v>
+        <v>1.94364583492279</v>
       </c>
       <c r="E126">
-        <v>2.173660039901733</v>
+        <v>1.974872469902038</v>
       </c>
       <c r="F126">
-        <v>17506</v>
+        <v>0</v>
       </c>
       <c r="G126">
-        <v>2.185823095665448</v>
+        <v>2.014060618840194</v>
       </c>
       <c r="H126">
-        <v>2.192823016643524</v>
+        <v>2.026664113998413</v>
       </c>
       <c r="I126">
-        <v>2.184304579099019</v>
+        <v>2.055019736289978</v>
       </c>
       <c r="L126">
-        <v>43.9698368158223</v>
+        <v>44.67599749241062</v>
       </c>
       <c r="M126">
-        <v>47.57490104906136</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13">
+        <v>42.39022640514477</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14">
       <c r="A127" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B127">
-        <v>2.174629211425781</v>
+        <v>1.971507906913757</v>
       </c>
       <c r="C127">
-        <v>2.176957130432129</v>
+        <v>2.071787595748901</v>
       </c>
       <c r="D127">
-        <v>2.152586698532104</v>
+        <v>1.971495866775513</v>
       </c>
       <c r="E127">
-        <v>2.176934480667114</v>
+        <v>2.051184177398682</v>
       </c>
       <c r="F127">
-        <v>97191</v>
+        <v>1955960</v>
       </c>
       <c r="G127">
-        <v>2.185015039756508</v>
+        <v>2.017435487800057</v>
       </c>
       <c r="H127">
-        <v>2.192020237445831</v>
+        <v>2.02190752029419</v>
       </c>
       <c r="I127">
-        <v>2.184157752990723</v>
+        <v>2.054140742619832</v>
       </c>
       <c r="L127">
-        <v>45.66089227968089</v>
+        <v>57.95165083842612</v>
       </c>
       <c r="M127">
-        <v>48.35475769755384</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13">
+        <v>52.20876499452217</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14">
       <c r="A128" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B128">
-        <v>2.17693018913269</v>
+        <v>2.05470609664917</v>
       </c>
       <c r="C128">
-        <v>2.178409814834595</v>
+        <v>2.078457593917847</v>
       </c>
       <c r="D128">
-        <v>2.159700393676758</v>
+        <v>2.021344661712646</v>
       </c>
       <c r="E128">
-        <v>2.16604471206665</v>
+        <v>2.035156488418579</v>
       </c>
       <c r="F128">
-        <v>0</v>
+        <v>301917</v>
       </c>
       <c r="G128">
-        <v>2.183290464511976</v>
+        <v>2.019046487856286</v>
       </c>
       <c r="H128">
-        <v>2.190117359161377</v>
+        <v>2.01652911901474</v>
       </c>
       <c r="I128">
-        <v>2.183506615956624</v>
+        <v>2.051896564165751</v>
       </c>
       <c r="L128">
-        <v>41.02801778575898</v>
+        <v>54.84216109259736</v>
       </c>
       <c r="M128">
-        <v>45.90886033778335</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15">
+        <v>50.27086457880434</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13">
       <c r="A129" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B129">
-        <v>2.163243055343628</v>
+        <v>2.032068967819214</v>
       </c>
       <c r="C129">
-        <v>2.228545188903809</v>
+        <v>2.079241752624512</v>
       </c>
       <c r="D129">
-        <v>2.157707214355469</v>
+        <v>2.031640529632568</v>
       </c>
       <c r="E129">
-        <v>2.17720627784729</v>
+        <v>2.065485000610352</v>
       </c>
       <c r="F129">
-        <v>2457729</v>
+        <v>72444</v>
       </c>
       <c r="G129">
-        <v>2.182737356633368</v>
+        <v>2.023268170833928</v>
       </c>
       <c r="H129">
-        <v>2.188119828701019</v>
+        <v>2.012818419933319</v>
       </c>
       <c r="I129">
-        <v>2.18424019018809</v>
+        <v>2.050503357251485</v>
       </c>
       <c r="L129">
-        <v>47.20476544120074</v>
+        <v>59.47147697660497</v>
       </c>
       <c r="M129">
-        <v>48.76922308913496</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15">
+        <v>53.76787386209281</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13">
       <c r="A130" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B130">
-        <v>2.177339315414429</v>
+        <v>2.079158782958984</v>
       </c>
       <c r="C130">
-        <v>2.314668416976929</v>
+        <v>2.099748134613037</v>
       </c>
       <c r="D130">
-        <v>2.17321515083313</v>
+        <v>2.011630535125732</v>
       </c>
       <c r="E130">
-        <v>2.263674974441528</v>
+        <v>2.030611276626587</v>
       </c>
       <c r="F130">
-        <v>15433635</v>
+        <v>1669095</v>
       </c>
       <c r="G130">
-        <v>2.190095321888655</v>
+        <v>2.023935725905988</v>
       </c>
       <c r="H130">
-        <v>2.192767322063446</v>
+        <v>2.007977664470673</v>
       </c>
       <c r="I130">
-        <v>2.186993869145711</v>
+        <v>2.048504996299743</v>
       </c>
       <c r="L130">
-        <v>72.39973072454691</v>
+        <v>52.50824432263897</v>
       </c>
       <c r="M130">
-        <v>64.45214186550322</v>
-      </c>
-      <c r="O130" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15">
+        <v>49.4608310470551</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13">
       <c r="A131" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B131">
-        <v>2.26690673828125</v>
+        <v>2.030743598937988</v>
       </c>
       <c r="C131">
-        <v>2.321119070053101</v>
+        <v>2.043938159942627</v>
       </c>
       <c r="D131">
-        <v>2.195211887359619</v>
+        <v>1.997100114822388</v>
       </c>
       <c r="E131">
-        <v>2.212074041366577</v>
+        <v>2.030858993530273</v>
       </c>
       <c r="F131">
-        <v>6484902</v>
+        <v>248508</v>
       </c>
       <c r="G131">
-        <v>2.192093387295739</v>
+        <v>2.024565113871832</v>
       </c>
       <c r="H131">
-        <v>2.193295121192932</v>
+        <v>2.003126108646393</v>
       </c>
       <c r="I131">
-        <v>2.189481115341187</v>
+        <v>2.046322480837504</v>
       </c>
       <c r="L131">
-        <v>54.83234843867325</v>
+        <v>52.55263830341693</v>
       </c>
       <c r="M131">
-        <v>53.85670116310555</v>
-      </c>
-    </row>
-    <row r="132" spans="1:15">
+        <v>49.4917810276082</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13">
       <c r="A132" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B132">
-        <v>2.204820156097412</v>
+        <v>2.034260034561157</v>
       </c>
       <c r="C132">
-        <v>2.228924512863159</v>
+        <v>2.042564630508423</v>
       </c>
       <c r="D132">
-        <v>2.184865713119507</v>
+        <v>2.014495611190796</v>
       </c>
       <c r="E132">
-        <v>2.196331262588501</v>
+        <v>2.042502641677856</v>
       </c>
       <c r="F132">
-        <v>2297530</v>
+        <v>9931</v>
       </c>
       <c r="G132">
-        <v>2.19247864868599</v>
+        <v>2.026195798217834</v>
       </c>
       <c r="H132">
-        <v>2.193312168121338</v>
+        <v>2.001425790786743</v>
       </c>
       <c r="I132">
-        <v>2.189956935246785</v>
+        <v>2.044518637657165</v>
       </c>
       <c r="L132">
-        <v>50.61691591840587</v>
+        <v>54.78749846583757</v>
       </c>
       <c r="M132">
-        <v>51.09685808881176</v>
-      </c>
-    </row>
-    <row r="133" spans="1:15">
+        <v>51.01041855246904</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13">
       <c r="A133" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B133">
-        <v>2.187450885772705</v>
+        <v>2.045977115631104</v>
       </c>
       <c r="C133">
-        <v>2.200891971588135</v>
+        <v>2.052926778793335</v>
       </c>
       <c r="D133">
-        <v>2.142762899398804</v>
+        <v>2.004343509674072</v>
       </c>
       <c r="E133">
-        <v>2.148180484771729</v>
+        <v>2.014241218566895</v>
       </c>
       <c r="F133">
-        <v>675402</v>
+        <v>0</v>
       </c>
       <c r="G133">
-        <v>2.188451542875602</v>
+        <v>2.025109018249567</v>
       </c>
       <c r="H133">
-        <v>2.19097146987915</v>
+        <v>1.998048627376556</v>
       </c>
       <c r="I133">
-        <v>2.189332524935404</v>
+        <v>2.041145730018616</v>
       </c>
       <c r="L133">
-        <v>40.0281518806393</v>
+        <v>48.54395781833099</v>
       </c>
       <c r="M133">
-        <v>43.71767486780725</v>
-      </c>
-    </row>
-    <row r="134" spans="1:15">
+        <v>47.29349904506424</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13">
       <c r="A134" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B134">
-        <v>2.144751787185669</v>
+        <v>2.017696142196656</v>
       </c>
       <c r="C134">
-        <v>2.188942193984985</v>
+        <v>2.026148796081543</v>
       </c>
       <c r="D134">
-        <v>2.133743762969971</v>
+        <v>2.00543737411499</v>
       </c>
       <c r="E134">
-        <v>2.182419300079346</v>
+        <v>2.025964498519897</v>
       </c>
       <c r="F134">
-        <v>573724</v>
+        <v>2011</v>
       </c>
       <c r="G134">
-        <v>2.187903157166852</v>
+        <v>2.025186789183234</v>
       </c>
       <c r="H134">
-        <v>2.190574932098388</v>
+        <v>1.997483134269714</v>
       </c>
       <c r="I134">
-        <v>2.189553054173787</v>
+        <v>2.037813862164815</v>
       </c>
       <c r="L134">
-        <v>48.62551069976631</v>
+        <v>51.14226465544942</v>
       </c>
       <c r="M134">
-        <v>49.32212023250918</v>
-      </c>
-    </row>
-    <row r="135" spans="1:15">
+        <v>48.95506178269047</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13">
       <c r="A135" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B135">
-        <v>2.178292512893677</v>
+        <v>2.022946834564209</v>
       </c>
       <c r="C135">
-        <v>2.210748672485352</v>
+        <v>2.034419775009156</v>
       </c>
       <c r="D135">
-        <v>2.048505783081055</v>
+        <v>2.01439094543457</v>
       </c>
       <c r="E135">
-        <v>2.06663966178894</v>
+        <v>2.025038957595825</v>
       </c>
       <c r="F135">
-        <v>2010692</v>
+        <v>0</v>
       </c>
       <c r="G135">
-        <v>2.176879203041587</v>
+        <v>2.025173349948015</v>
       </c>
       <c r="H135">
-        <v>2.18392424583435</v>
+        <v>1.996745538711548</v>
       </c>
       <c r="I135">
-        <v>2.186510586738586</v>
+        <v>2.033853713671367</v>
       </c>
       <c r="L135">
-        <v>31.46548248815106</v>
+        <v>50.91392065175227</v>
       </c>
       <c r="M135">
-        <v>36.19637810360891</v>
-      </c>
-    </row>
-    <row r="136" spans="1:15">
+        <v>48.82419818607706</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13">
       <c r="A136" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B136">
-        <v>2.066684484481812</v>
+        <v>2.019336462020874</v>
       </c>
       <c r="C136">
-        <v>2.113234996795654</v>
+        <v>2.062963247299194</v>
       </c>
       <c r="D136">
-        <v>2.066550731658936</v>
+        <v>2.013501644134521</v>
       </c>
       <c r="E136">
-        <v>2.094967365264893</v>
+        <v>2.03855562210083</v>
       </c>
       <c r="F136">
-        <v>0</v>
+        <v>110267</v>
       </c>
       <c r="G136">
-        <v>2.169432672334615</v>
+        <v>2.026389920143725</v>
       </c>
       <c r="H136">
-        <v>2.177802383899689</v>
+        <v>1.997858548164368</v>
       </c>
       <c r="I136">
-        <v>2.184697763125102</v>
+        <v>2.029762705167135</v>
       </c>
       <c r="L136">
-        <v>37.53332007227696</v>
+        <v>54.26859689352376</v>
       </c>
       <c r="M136">
-        <v>40.37717025445561</v>
-      </c>
-    </row>
-    <row r="137" spans="1:15">
+        <v>50.8889098673214</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13">
       <c r="A137" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B137">
-        <v>2.086739063262939</v>
+        <v>2.02576231956482</v>
       </c>
       <c r="C137">
-        <v>2.114060163497925</v>
+        <v>2.07449722290039</v>
       </c>
       <c r="D137">
-        <v>2.080514192581177</v>
+        <v>2.025685548782349</v>
       </c>
       <c r="E137">
-        <v>2.106011152267456</v>
+        <v>2.054064989089966</v>
       </c>
       <c r="F137">
-        <v>0</v>
+        <v>156916</v>
       </c>
       <c r="G137">
-        <v>2.163667079601236</v>
+        <v>2.028905835502474</v>
       </c>
       <c r="H137">
-        <v>2.17382777929306</v>
+        <v>2.002141118049622</v>
       </c>
       <c r="I137">
-        <v>2.181798466046651</v>
+        <v>2.026687669754028</v>
       </c>
       <c r="L137">
-        <v>39.86832119475006</v>
+        <v>57.97597573537623</v>
       </c>
       <c r="M137">
-        <v>41.97352987612881</v>
-      </c>
-    </row>
-    <row r="138" spans="1:15">
+        <v>53.22104901477227</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13">
       <c r="A138" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B138">
-        <v>2.117296457290649</v>
+        <v>2.050837516784668</v>
       </c>
       <c r="C138">
-        <v>2.117296457290649</v>
+        <v>2.09424090385437</v>
       </c>
       <c r="D138">
-        <v>2.066128492355347</v>
+        <v>2.050837516784668</v>
       </c>
       <c r="E138">
-        <v>2.077553987503052</v>
+        <v>2.09395694732666</v>
       </c>
       <c r="F138">
-        <v>0</v>
+        <v>183058</v>
       </c>
       <c r="G138">
-        <v>2.15583861668322</v>
+        <v>2.034819572941037</v>
       </c>
       <c r="H138">
-        <v>2.167497348785401</v>
+        <v>2.005702459812164</v>
       </c>
       <c r="I138">
-        <v>2.177580189704895</v>
+        <v>2.025062084197998</v>
       </c>
       <c r="L138">
-        <v>35.97058615423135</v>
+        <v>65.96095232820991</v>
       </c>
       <c r="M138">
-        <v>39.07066237139126</v>
-      </c>
-    </row>
-    <row r="139" spans="1:15">
+        <v>58.65896171314364</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13">
       <c r="A139" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B139">
-        <v>2.082711935043335</v>
+        <v>2.091898918151855</v>
       </c>
       <c r="C139">
-        <v>2.109533309936523</v>
+        <v>2.091898918151855</v>
       </c>
       <c r="D139">
-        <v>2.049673795700073</v>
+        <v>2.067183971405029</v>
       </c>
       <c r="E139">
-        <v>2.102481842041016</v>
+        <v>2.087023735046387</v>
       </c>
       <c r="F139">
-        <v>2530</v>
+        <v>170827</v>
       </c>
       <c r="G139">
-        <v>2.150988000806656</v>
+        <v>2.039565405859705</v>
       </c>
       <c r="H139">
-        <v>2.163437867164612</v>
+        <v>2.012545675039291</v>
       </c>
       <c r="I139">
-        <v>2.173757688204447</v>
+        <v>2.023306242624919</v>
       </c>
       <c r="L139">
-        <v>41.59739757745067</v>
+        <v>63.59817745714521</v>
       </c>
       <c r="M139">
-        <v>42.80237080936725</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15">
+        <v>57.40984800409623</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13">
       <c r="A140" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B140">
-        <v>2.103405475616455</v>
+        <v>2.089611530303955</v>
       </c>
       <c r="C140">
-        <v>2.114251613616944</v>
+        <v>2.111782312393188</v>
       </c>
       <c r="D140">
-        <v>2.093100547790528</v>
+        <v>2.082744121551514</v>
       </c>
       <c r="E140">
-        <v>2.10728120803833</v>
+        <v>2.094348907470703</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>112252</v>
       </c>
       <c r="G140">
-        <v>2.147014656009536</v>
+        <v>2.044545724187977</v>
       </c>
       <c r="H140">
-        <v>2.158854365348816</v>
+        <v>2.021759176254272</v>
       </c>
       <c r="I140">
-        <v>2.171642891565959</v>
+        <v>2.022203660011292</v>
       </c>
       <c r="L140">
-        <v>42.68827956551009</v>
+        <v>65.0847511547699</v>
       </c>
       <c r="M140">
-        <v>43.51960767555282</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15">
+        <v>58.41735427745772</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13">
       <c r="A141" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B141">
-        <v>2.114075660705566</v>
+        <v>2.093547582626343</v>
       </c>
       <c r="C141">
-        <v>2.114114999771118</v>
+        <v>2.093547582626343</v>
       </c>
       <c r="D141">
-        <v>2.080485105514526</v>
+        <v>2.075562000274658</v>
       </c>
       <c r="E141">
-        <v>2.090562105178833</v>
+        <v>2.075562000274658</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>185888</v>
       </c>
       <c r="G141">
-        <v>2.141882605934017</v>
+        <v>2.047365385650403</v>
       </c>
       <c r="H141">
-        <v>2.153521776199341</v>
+        <v>2.027206575870514</v>
       </c>
       <c r="I141">
-        <v>2.167944359779358</v>
+        <v>2.020459389686585</v>
       </c>
       <c r="L141">
-        <v>39.7765295782293</v>
+        <v>58.22423108956953</v>
       </c>
       <c r="M141">
-        <v>41.56428398314564</v>
-      </c>
-    </row>
-    <row r="142" spans="1:15">
+        <v>54.83461279863677</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13">
       <c r="A142" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B142">
-        <v>2.090844869613647</v>
+        <v>2.082322120666504</v>
       </c>
       <c r="C142">
-        <v>2.104167699813843</v>
+        <v>2.085160970687866</v>
       </c>
       <c r="D142">
-        <v>2.085883617401123</v>
+        <v>2.058295726776123</v>
       </c>
       <c r="E142">
-        <v>2.096334457397461</v>
+        <v>2.077415704727173</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>14953</v>
       </c>
       <c r="G142">
-        <v>2.137741865157967</v>
+        <v>2.0500972328392</v>
       </c>
       <c r="H142">
-        <v>2.148251748085022</v>
+        <v>2.033865582942963</v>
       </c>
       <c r="I142">
-        <v>2.164622497558594</v>
+        <v>2.020489613215128</v>
       </c>
       <c r="L142">
-        <v>41.33087457752906</v>
+        <v>58.70738764326744</v>
       </c>
       <c r="M142">
-        <v>42.5244391985873</v>
-      </c>
-    </row>
-    <row r="143" spans="1:15">
+        <v>55.12704697395721</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13">
       <c r="A143" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B143">
-        <v>2.093292951583862</v>
+        <v>2.080436944961548</v>
       </c>
       <c r="C143">
-        <v>2.103598833084106</v>
+        <v>2.094488143920898</v>
       </c>
       <c r="D143">
-        <v>2.083541393280029</v>
+        <v>2.06395149230957</v>
       </c>
       <c r="E143">
-        <v>2.096617937088013</v>
+        <v>2.064278125762939</v>
       </c>
       <c r="F143">
-        <v>0</v>
+        <v>40955</v>
       </c>
       <c r="G143">
-        <v>2.134003326242516</v>
+        <v>2.051386404923176</v>
       </c>
       <c r="H143">
-        <v>2.144213497638702</v>
+        <v>2.038871449232102</v>
       </c>
       <c r="I143">
-        <v>2.161343280474345</v>
+        <v>2.019906067848205</v>
       </c>
       <c r="L143">
-        <v>41.41441449960012</v>
+        <v>53.75087383406247</v>
       </c>
       <c r="M143">
-        <v>42.57434176343488</v>
-      </c>
-    </row>
-    <row r="144" spans="1:15">
+        <v>52.53108521975603</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13">
       <c r="A144" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B144">
-        <v>2.096612691879272</v>
+        <v>2.064083337783813</v>
       </c>
       <c r="C144">
-        <v>2.115428447723389</v>
+        <v>2.080484628677368</v>
       </c>
       <c r="D144">
-        <v>2.095609903335572</v>
+        <v>2.047455549240112</v>
       </c>
       <c r="E144">
-        <v>2.115428447723389</v>
+        <v>2.0769944190979</v>
       </c>
       <c r="F144">
-        <v>0</v>
+        <v>148484</v>
       </c>
       <c r="G144">
-        <v>2.132314700922596</v>
+        <v>2.053714406211788</v>
       </c>
       <c r="H144">
-        <v>2.141367089748383</v>
+        <v>2.046356981992722</v>
       </c>
       <c r="I144">
-        <v>2.158845893541972</v>
+        <v>2.021230069796244</v>
       </c>
       <c r="L144">
-        <v>47.04346529640704</v>
+        <v>57.64480254380306</v>
       </c>
       <c r="M144">
-        <v>45.9291388348627</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14">
+        <v>54.75215080377556</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13">
       <c r="A145" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B145">
-        <v>2.114389896392822</v>
+        <v>2.071063995361328</v>
       </c>
       <c r="C145">
-        <v>2.131414890289306</v>
+        <v>2.087427139282227</v>
       </c>
       <c r="D145">
-        <v>2.112056255340576</v>
+        <v>2.063117027282715</v>
       </c>
       <c r="E145">
-        <v>2.125920534133911</v>
+        <v>2.081769227981567</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>2375</v>
       </c>
       <c r="G145">
-        <v>2.131733413032715</v>
+        <v>2.056264844554495</v>
       </c>
       <c r="H145">
-        <v>2.138816213607788</v>
+        <v>2.051994270086289</v>
       </c>
       <c r="I145">
-        <v>2.156388131777446</v>
+        <v>2.022629348436991</v>
       </c>
       <c r="L145">
-        <v>50.05475367767134</v>
+        <v>59.09946241712204</v>
       </c>
       <c r="M145">
-        <v>47.76225770753661</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14">
+        <v>55.59236471189326</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13">
       <c r="A146" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B146">
-        <v>2.126510143280029</v>
+        <v>2.087447881698608</v>
       </c>
       <c r="C146">
-        <v>2.151837348937988</v>
+        <v>2.087447881698608</v>
       </c>
       <c r="D146">
-        <v>2.119777917861938</v>
+        <v>2.071243762969971</v>
       </c>
       <c r="E146">
-        <v>2.143843412399292</v>
+        <v>2.080645561218262</v>
       </c>
       <c r="F146">
         <v>0</v>
       </c>
       <c r="G146">
-        <v>2.13283432206604</v>
+        <v>2.05848127334211</v>
       </c>
       <c r="H146">
-        <v>2.137325382232666</v>
+        <v>2.0572829246521</v>
       </c>
       <c r="I146">
-        <v>2.153936092058818</v>
+        <v>2.024774352709452</v>
       </c>
       <c r="L146">
-        <v>54.9749804390428</v>
+        <v>58.56693580569296</v>
       </c>
       <c r="M146">
-        <v>50.82893140600618</v>
-      </c>
-    </row>
-    <row r="147" spans="1:14">
+        <v>55.33196873268216</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13">
       <c r="A147" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B147">
-        <v>2.15421199798584</v>
+        <v>2.080646514892578</v>
       </c>
       <c r="C147">
-        <v>2.162529706954956</v>
+        <v>2.097018241882324</v>
       </c>
       <c r="D147">
-        <v>2.143722534179688</v>
+        <v>2.079789876937866</v>
       </c>
       <c r="E147">
-        <v>2.161285877227783</v>
+        <v>2.086990118026733</v>
       </c>
       <c r="F147">
-        <v>38727</v>
+        <v>0</v>
       </c>
       <c r="G147">
-        <v>2.135420827080744</v>
+        <v>2.061072986495257</v>
       </c>
       <c r="H147">
-        <v>2.1365429520607</v>
+        <v>2.059073221683502</v>
       </c>
       <c r="I147">
-        <v>2.15312884648641</v>
+        <v>2.028726903597514</v>
       </c>
       <c r="L147">
-        <v>59.35841219582596</v>
+        <v>60.8100372407544</v>
       </c>
       <c r="M147">
-        <v>53.67894169226343</v>
-      </c>
-    </row>
-    <row r="148" spans="1:14">
+        <v>56.56896321285632</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13">
       <c r="A148" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B148">
-        <v>2.160969734191895</v>
+        <v>2.083492755889893</v>
       </c>
       <c r="C148">
-        <v>2.163984298706055</v>
+        <v>2.099189758300781</v>
       </c>
       <c r="D148">
-        <v>2.146316051483154</v>
+        <v>2.077613592147827</v>
       </c>
       <c r="E148">
-        <v>2.146316051483154</v>
+        <v>2.096797704696656</v>
       </c>
       <c r="F148">
-        <v>102104</v>
+        <v>0</v>
       </c>
       <c r="G148">
-        <v>2.136411302026418</v>
+        <v>2.06432068814993</v>
       </c>
       <c r="H148">
-        <v>2.135556519031525</v>
+        <v>2.062155282497406</v>
       </c>
       <c r="I148">
-        <v>2.15120062828064</v>
+        <v>2.031195823351542</v>
       </c>
       <c r="L148">
-        <v>54.25821194070498</v>
+        <v>64.18223992778515</v>
       </c>
       <c r="M148">
-        <v>50.94952112519475</v>
-      </c>
-    </row>
-    <row r="149" spans="1:14">
+        <v>58.48296706070006</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13">
       <c r="A149" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B149">
-        <v>2.14924693107605</v>
+        <v>2.097001075744629</v>
       </c>
       <c r="C149">
-        <v>2.162234544754028</v>
+        <v>2.103182792663574</v>
       </c>
       <c r="D149">
-        <v>2.139081001281738</v>
+        <v>2.085105180740356</v>
       </c>
       <c r="E149">
-        <v>2.142724514007568</v>
+        <v>2.088024616241455</v>
       </c>
       <c r="F149">
-        <v>69132</v>
+        <v>29973</v>
       </c>
       <c r="G149">
-        <v>2.136985230388341</v>
+        <v>2.066475590703705</v>
       </c>
       <c r="H149">
-        <v>2.133832430839539</v>
+        <v>2.063282263278961</v>
       </c>
       <c r="I149">
-        <v>2.149835729598999</v>
+        <v>2.035791329542796</v>
       </c>
       <c r="L149">
-        <v>53.02842504256455</v>
+        <v>59.06742706176023</v>
       </c>
       <c r="M149">
-        <v>50.28884814754575</v>
-      </c>
-    </row>
-    <row r="150" spans="1:14">
+        <v>56.10124991190385</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13">
       <c r="A150" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B150">
-        <v>2.140495538711548</v>
+        <v>2.089534521102905</v>
       </c>
       <c r="C150">
-        <v>2.147115230560303</v>
+        <v>2.104872226715088</v>
       </c>
       <c r="D150">
-        <v>2.134105205535889</v>
+        <v>2.086433172225952</v>
       </c>
       <c r="E150">
-        <v>2.139698982238769</v>
+        <v>2.088069438934326</v>
       </c>
       <c r="F150">
-        <v>102168</v>
+        <v>108258</v>
       </c>
       <c r="G150">
-        <v>2.137231935102016</v>
+        <v>2.068438667815579</v>
       </c>
       <c r="H150">
-        <v>2.127633631229401</v>
+        <v>2.066155171394348</v>
       </c>
       <c r="I150">
-        <v>2.14786065419515</v>
+        <v>2.041724348068237</v>
       </c>
       <c r="L150">
-        <v>51.9133168677029</v>
+        <v>59.08616764054563</v>
       </c>
       <c r="M150">
-        <v>49.70413220960268</v>
-      </c>
-    </row>
-    <row r="151" spans="1:14">
+        <v>56.11108426409803</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13">
       <c r="A151" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B151">
-        <v>2.139035940170288</v>
+        <v>2.08827018737793</v>
       </c>
       <c r="C151">
-        <v>2.139448881149292</v>
+        <v>2.09675145149231</v>
       </c>
       <c r="D151">
-        <v>2.123721837997437</v>
+        <v>2.07745099067688</v>
       </c>
       <c r="E151">
-        <v>2.127426385879517</v>
+        <v>2.088703155517578</v>
       </c>
       <c r="F151">
-        <v>47775</v>
+        <v>397454</v>
       </c>
       <c r="G151">
-        <v>2.136340521536334</v>
+        <v>2.070280893970307</v>
       </c>
       <c r="H151">
-        <v>2.123401248455048</v>
+        <v>2.069047379493713</v>
       </c>
       <c r="I151">
-        <v>2.145534404118856</v>
+        <v>2.045793986320496</v>
       </c>
       <c r="J151">
-        <v>2.191568588415782</v>
+        <v>2.126552608013153</v>
       </c>
       <c r="L151">
-        <v>47.36784328718457</v>
+        <v>59.38195703589392</v>
       </c>
       <c r="M151">
-        <v>47.30160383002347</v>
-      </c>
-    </row>
-    <row r="152" spans="1:14">
+        <v>56.2602782884774</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13">
       <c r="A152" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B152">
-        <v>2.129710674285889</v>
+        <v>2.089199066162109</v>
       </c>
       <c r="C152">
-        <v>2.131425380706787</v>
+        <v>2.102293014526367</v>
       </c>
       <c r="D152">
-        <v>2.123115301132202</v>
+        <v>2.082079172134399</v>
       </c>
       <c r="E152">
-        <v>2.127890110015869</v>
+        <v>2.082641124725342</v>
       </c>
       <c r="F152">
-        <v>16028</v>
+        <v>88326</v>
       </c>
       <c r="G152">
-        <v>2.135572302307201</v>
+        <v>2.071404551311673</v>
       </c>
       <c r="H152">
-        <v>2.119979190826416</v>
+        <v>2.071054303646088</v>
       </c>
       <c r="I152">
-        <v>2.143072907129924</v>
+        <v>2.0504075050354</v>
       </c>
       <c r="J152">
-        <v>2.190725164860816</v>
+        <v>2.125970998962983</v>
       </c>
       <c r="L152">
-        <v>47.56301364434565</v>
+        <v>55.09544798163124</v>
       </c>
       <c r="M152">
-        <v>47.40505323195972</v>
-      </c>
-    </row>
-    <row r="153" spans="1:14">
+        <v>54.3567564647073</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13">
       <c r="A153" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B153">
-        <v>2.129340171813965</v>
+        <v>2.087756633758545</v>
       </c>
       <c r="C153">
-        <v>2.129340171813965</v>
+        <v>2.08852481842041</v>
       </c>
       <c r="D153">
-        <v>2.069262981414795</v>
+        <v>2.059035301208496</v>
       </c>
       <c r="E153">
-        <v>2.07650899887085</v>
+        <v>2.067346334457397</v>
       </c>
       <c r="F153">
-        <v>295188</v>
+        <v>79769</v>
       </c>
       <c r="G153">
-        <v>2.130202911085714</v>
+        <v>2.071035622506739</v>
       </c>
       <c r="H153">
-        <v>2.116395616531372</v>
+        <v>2.073709559440613</v>
       </c>
       <c r="I153">
-        <v>2.139710442225138</v>
+        <v>2.053847022851308</v>
       </c>
       <c r="J153">
-        <v>2.189212367960287</v>
+        <v>2.125194513340392</v>
       </c>
       <c r="L153">
-        <v>32.52770314004877</v>
+        <v>45.72642332219544</v>
       </c>
       <c r="M153">
-        <v>38.40832791172355</v>
-      </c>
-    </row>
-    <row r="154" spans="1:14">
+        <v>49.7803556841974</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13">
       <c r="A154" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B154">
-        <v>2.071510314941406</v>
+        <v>2.064147710800171</v>
       </c>
       <c r="C154">
-        <v>2.086785078048706</v>
+        <v>2.0789475440979</v>
       </c>
       <c r="D154">
-        <v>2.068123340606689</v>
+        <v>2.060053586959839</v>
       </c>
       <c r="E154">
-        <v>2.08178448677063</v>
+        <v>2.075569629669189</v>
       </c>
       <c r="F154">
-        <v>52575</v>
+        <v>82614</v>
       </c>
       <c r="G154">
-        <v>2.125801236147979</v>
+        <v>2.071447804976053</v>
       </c>
       <c r="H154">
-        <v>2.111363875865936</v>
+        <v>2.076189815998077</v>
       </c>
       <c r="I154">
-        <v>2.136691371599833</v>
+        <v>2.058789885044098</v>
       </c>
       <c r="J154">
-        <v>2.187789482116715</v>
+        <v>2.124537230112959</v>
       </c>
       <c r="L154">
-        <v>34.90457181519076</v>
+        <v>50.78819800381672</v>
       </c>
       <c r="M154">
-        <v>39.67424828032537</v>
-      </c>
-    </row>
-    <row r="155" spans="1:14">
+        <v>52.11467362391809</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13">
       <c r="A155" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B155">
-        <v>2.075049161911011</v>
+        <v>2.079300165176392</v>
       </c>
       <c r="C155">
-        <v>2.08119535446167</v>
+        <v>2.081745386123657</v>
       </c>
       <c r="D155">
-        <v>2.023346185684204</v>
+        <v>2.051010131835937</v>
       </c>
       <c r="E155">
-        <v>2.037274360656738</v>
+        <v>2.051010131835937</v>
       </c>
       <c r="F155">
-        <v>330128</v>
+        <v>200320</v>
       </c>
       <c r="G155">
-        <v>2.117753338376048</v>
+        <v>2.069589834690588</v>
       </c>
       <c r="H155">
-        <v>2.109895610809326</v>
+        <v>2.077488374710083</v>
       </c>
       <c r="I155">
-        <v>2.132035915056865</v>
+        <v>2.061522773901622</v>
       </c>
       <c r="J155">
-        <v>2.185795904349034</v>
+        <v>2.123563361261608</v>
       </c>
       <c r="L155">
-        <v>26.15807429133631</v>
+        <v>38.670496762465</v>
       </c>
       <c r="M155">
-        <v>33.43095116443732</v>
-      </c>
-      <c r="N155" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="156" spans="1:14">
+        <v>45.33677208812632</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13">
       <c r="A156" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B156">
-        <v>2.038064956665039</v>
+        <v>2.049575328826904</v>
       </c>
       <c r="C156">
-        <v>2.053332328796387</v>
+        <v>2.067312479019165</v>
       </c>
       <c r="D156">
-        <v>2.02639389038086</v>
+        <v>2.045655488967896</v>
       </c>
       <c r="E156">
-        <v>2.039790868759156</v>
+        <v>2.062443971633911</v>
       </c>
       <c r="F156">
-        <v>46726</v>
+        <v>73917</v>
       </c>
       <c r="G156">
-        <v>2.110665841138149</v>
+        <v>2.068940210776344</v>
       </c>
       <c r="H156">
-        <v>2.107136785984039</v>
+        <v>2.078682792186737</v>
       </c>
       <c r="I156">
-        <v>2.127573609352112</v>
+        <v>2.06444182395935</v>
       </c>
       <c r="J156">
-        <v>2.183862062818042</v>
+        <v>2.122753832922169</v>
       </c>
       <c r="L156">
-        <v>27.31653029491019</v>
+        <v>45.48310886234665</v>
       </c>
       <c r="M156">
-        <v>34.06272333889502</v>
-      </c>
-      <c r="N156" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="157" spans="1:14">
+        <v>48.68298755117711</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13">
       <c r="A157" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B157">
-        <v>2.037342071533203</v>
+        <v>2.063248872756958</v>
       </c>
       <c r="C157">
-        <v>2.048718690872192</v>
+        <v>2.06804084777832</v>
       </c>
       <c r="D157">
-        <v>2.012682676315308</v>
+        <v>2.043386220932007</v>
       </c>
       <c r="E157">
-        <v>2.016295433044434</v>
+        <v>2.064446210861206</v>
       </c>
       <c r="F157">
-        <v>57534</v>
+        <v>166230</v>
       </c>
       <c r="G157">
-        <v>2.102086713129629</v>
+        <v>2.068531665329514</v>
       </c>
       <c r="H157">
-        <v>2.102651000022888</v>
+        <v>2.079201853275299</v>
       </c>
       <c r="I157">
-        <v>2.122218974431356</v>
+        <v>2.064883891741435</v>
       </c>
       <c r="J157">
-        <v>2.181642637258126</v>
+        <v>2.121981546537256</v>
       </c>
       <c r="L157">
-        <v>23.45201991956915</v>
+        <v>46.65059091552128</v>
       </c>
       <c r="M157">
-        <v>31.09546691689307</v>
-      </c>
-      <c r="N157" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="158" spans="1:14">
+        <v>49.26864495358129</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13">
       <c r="A158" s="1" t="s">
         <v>170</v>
       </c>
       <c r="B158">
-        <v>2.019634008407593</v>
+        <v>2.06313681602478</v>
       </c>
       <c r="C158">
-        <v>2.033807754516602</v>
+        <v>2.089423418045044</v>
       </c>
       <c r="D158">
-        <v>1.957271099090576</v>
+        <v>2.062014818191528</v>
       </c>
       <c r="E158">
-        <v>1.968413591384888</v>
+        <v>2.084116220474243</v>
       </c>
       <c r="F158">
-        <v>237413</v>
+        <v>45851</v>
       </c>
       <c r="G158">
-        <v>2.089934611152835</v>
+        <v>2.069948443069944</v>
       </c>
       <c r="H158">
-        <v>2.09719398021698</v>
+        <v>2.078709816932678</v>
       </c>
       <c r="I158">
-        <v>2.11563127040863</v>
+        <v>2.066515882809957</v>
       </c>
       <c r="J158">
-        <v>2.178818411484971</v>
+        <v>2.121480019039732</v>
       </c>
       <c r="L158">
-        <v>17.70837565190858</v>
+        <v>56.86075649564723</v>
       </c>
       <c r="M158">
-        <v>26.10470813680778</v>
-      </c>
-      <c r="N158" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="159" spans="1:14">
+        <v>54.73410443514536</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13">
       <c r="A159" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B159">
-        <v>1.959343671798706</v>
+        <v>2.083813190460205</v>
       </c>
       <c r="C159">
-        <v>2.128264904022217</v>
+        <v>2.092287540435791</v>
       </c>
       <c r="D159">
-        <v>1.956442832946777</v>
+        <v>2.073585271835327</v>
       </c>
       <c r="E159">
-        <v>2.022730112075806</v>
+        <v>2.087010860443115</v>
       </c>
       <c r="F159">
-        <v>11141497</v>
+        <v>62846</v>
       </c>
       <c r="G159">
-        <v>2.083825111236741</v>
+        <v>2.07149957192205</v>
       </c>
       <c r="H159">
-        <v>2.093206393718719</v>
+        <v>2.078709173202514</v>
       </c>
       <c r="I159">
-        <v>2.110482064882914</v>
+        <v>2.067233411471049</v>
       </c>
       <c r="J159">
-        <v>2.17675101679081</v>
+        <v>2.121023473892758</v>
       </c>
       <c r="L159">
-        <v>37.30405594023407</v>
+        <v>58.18562059549312</v>
       </c>
       <c r="M159">
-        <v>38.21835117375526</v>
-      </c>
-    </row>
-    <row r="160" spans="1:14">
+        <v>55.4939819983907</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13">
       <c r="A160" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B160">
-        <v>2.027461528778076</v>
+        <v>2.08447265625</v>
       </c>
       <c r="C160">
-        <v>2.033918857574463</v>
+        <v>2.091444730758667</v>
       </c>
       <c r="D160">
-        <v>1.94739294052124</v>
+        <v>2.074934244155884</v>
       </c>
       <c r="E160">
-        <v>1.950159430503845</v>
+        <v>2.074934244155884</v>
       </c>
       <c r="F160">
-        <v>2302033</v>
+        <v>233993</v>
       </c>
       <c r="G160">
-        <v>2.071673685715568</v>
+        <v>2.071811814852399</v>
       </c>
       <c r="H160">
-        <v>2.085350304841995</v>
+        <v>2.077738440036774</v>
       </c>
       <c r="I160">
-        <v>2.100031546751658</v>
+        <v>2.068710843722025</v>
       </c>
       <c r="J160">
-        <v>2.173749803727406</v>
+        <v>2.120413020518759</v>
       </c>
       <c r="L160">
-        <v>27.47145933155865</v>
+        <v>50.8550743746714</v>
       </c>
       <c r="M160">
-        <v>30.92425899677365</v>
-      </c>
-      <c r="N160" t="s">
-        <v>195</v>
+        <v>51.60196989827578</v>
       </c>
     </row>
     <row r="161" spans="1:14">
@@ -6369,40 +6375,37 @@
         <v>173</v>
       </c>
       <c r="B161">
-        <v>1.959297895431518</v>
+        <v>2.076834678649902</v>
       </c>
       <c r="C161">
-        <v>1.965715408325196</v>
+        <v>2.085490465164185</v>
       </c>
       <c r="D161">
-        <v>1.88789165019989</v>
+        <v>2.072628974914551</v>
       </c>
       <c r="E161">
-        <v>1.910078883171081</v>
+        <v>2.085254669189453</v>
       </c>
       <c r="F161">
-        <v>2198422</v>
+        <v>68060</v>
       </c>
       <c r="G161">
-        <v>2.056983249120615</v>
+        <v>2.073033892519404</v>
       </c>
       <c r="H161">
-        <v>2.076326143741608</v>
+        <v>2.078223073482513</v>
       </c>
       <c r="I161">
-        <v>2.089965041478475</v>
+        <v>2.070524032910665</v>
       </c>
       <c r="J161">
-        <v>2.170257473653812</v>
+        <v>2.119947346991219</v>
       </c>
       <c r="L161">
-        <v>23.60555311939199</v>
+        <v>56.16454282332614</v>
       </c>
       <c r="M161">
-        <v>27.77172823943379</v>
-      </c>
-      <c r="N161" t="s">
-        <v>195</v>
+        <v>54.53643392623781</v>
       </c>
     </row>
     <row r="162" spans="1:14">
@@ -6410,37 +6413,37 @@
         <v>174</v>
       </c>
       <c r="B162">
-        <v>1.913158535957336</v>
+        <v>2.082458734512329</v>
       </c>
       <c r="C162">
-        <v>2.010731935501098</v>
+        <v>2.090436935424805</v>
       </c>
       <c r="D162">
-        <v>1.90346908569336</v>
+        <v>2.079759836196899</v>
       </c>
       <c r="E162">
-        <v>1.966614007949829</v>
+        <v>2.08533787727356</v>
       </c>
       <c r="F162">
-        <v>3059146</v>
+        <v>57427</v>
       </c>
       <c r="G162">
-        <v>2.048767863559634</v>
+        <v>2.074152436587963</v>
       </c>
       <c r="H162">
-        <v>2.069840121269226</v>
+        <v>2.078619182109833</v>
       </c>
       <c r="I162">
-        <v>2.082307799657186</v>
+        <v>2.071951874097188</v>
       </c>
       <c r="J162">
-        <v>2.167560209207402</v>
+        <v>2.1194889434188</v>
       </c>
       <c r="L162">
-        <v>37.55099658199052</v>
+        <v>56.20745623038514</v>
       </c>
       <c r="M162">
-        <v>37.45692900248901</v>
+        <v>54.56035543967077</v>
       </c>
     </row>
     <row r="163" spans="1:14">
@@ -6448,37 +6451,37 @@
         <v>175</v>
       </c>
       <c r="B163">
-        <v>1.97403085231781</v>
+        <v>2.084755659103394</v>
       </c>
       <c r="C163">
-        <v>1.98973023891449</v>
+        <v>2.089101791381836</v>
       </c>
       <c r="D163">
-        <v>1.944235563278198</v>
+        <v>2.04620623588562</v>
       </c>
       <c r="E163">
-        <v>1.944235563278198</v>
+        <v>2.053535223007202</v>
       </c>
       <c r="F163">
-        <v>246274</v>
+        <v>592744</v>
       </c>
       <c r="G163">
-        <v>2.039264927170413</v>
+        <v>2.072278144444258</v>
       </c>
       <c r="H163">
-        <v>2.062221002578736</v>
+        <v>2.078082036972046</v>
       </c>
       <c r="I163">
-        <v>2.075509635607402</v>
+        <v>2.073261674245198</v>
       </c>
       <c r="J163">
-        <v>2.164602266877214</v>
+        <v>2.11861538420805</v>
       </c>
       <c r="L163">
-        <v>34.72797579946381</v>
+        <v>39.55659437053576</v>
       </c>
       <c r="M163">
-        <v>35.43163169808611</v>
+        <v>44.84751843695764</v>
       </c>
     </row>
     <row r="164" spans="1:14">
@@ -6486,37 +6489,37 @@
         <v>176</v>
       </c>
       <c r="B164">
-        <v>1.944445729255676</v>
+        <v>2.054855585098267</v>
       </c>
       <c r="C164">
-        <v>1.96972668170929</v>
+        <v>2.081180572509766</v>
       </c>
       <c r="D164">
-        <v>1.924161314964294</v>
+        <v>2.05345606803894</v>
       </c>
       <c r="E164">
-        <v>1.964160799980164</v>
+        <v>2.06466031074524</v>
       </c>
       <c r="F164">
-        <v>144762</v>
+        <v>53842</v>
       </c>
       <c r="G164">
-        <v>2.032437279244026</v>
+        <v>2.071585614107983</v>
       </c>
       <c r="H164">
-        <v>2.054657620191574</v>
+        <v>2.077465331554413</v>
       </c>
       <c r="I164">
-        <v>2.068234352270762</v>
+        <v>2.07455153465271</v>
       </c>
       <c r="J164">
-        <v>2.161947413011028</v>
+        <v>2.117900747473444</v>
       </c>
       <c r="L164">
-        <v>39.29901023450959</v>
+        <v>45.8675232260177</v>
       </c>
       <c r="M164">
-        <v>38.61423537434076</v>
+        <v>48.31383318379628</v>
       </c>
     </row>
     <row r="165" spans="1:14">
@@ -6524,37 +6527,37 @@
         <v>177</v>
       </c>
       <c r="B165">
-        <v>1.975181460380554</v>
+        <v>2.06494927406311</v>
       </c>
       <c r="C165">
-        <v>1.975181460380554</v>
+        <v>2.078588485717773</v>
       </c>
       <c r="D165">
-        <v>1.919612288475037</v>
+        <v>2.048903942108154</v>
       </c>
       <c r="E165">
-        <v>1.927283763885498</v>
+        <v>2.050260782241821</v>
       </c>
       <c r="F165">
-        <v>0</v>
+        <v>71358</v>
       </c>
       <c r="G165">
-        <v>2.022877868756887</v>
+        <v>2.069646993029241</v>
       </c>
       <c r="H165">
-        <v>2.044725781679154</v>
+        <v>2.075889909267425</v>
       </c>
       <c r="I165">
-        <v>2.063589155673981</v>
+        <v>2.07539226214091</v>
       </c>
       <c r="J165">
-        <v>2.158839285208041</v>
+        <v>2.117004853894217</v>
       </c>
       <c r="L165">
-        <v>34.29796476454661</v>
+        <v>39.81437135353897</v>
       </c>
       <c r="M165">
-        <v>35.16002252314938</v>
+        <v>44.42219495530391</v>
       </c>
     </row>
     <row r="166" spans="1:14">
@@ -6562,37 +6565,37 @@
         <v>178</v>
       </c>
       <c r="B166">
-        <v>1.923640727996826</v>
+        <v>2.054389238357544</v>
       </c>
       <c r="C166">
-        <v>1.974872946739197</v>
+        <v>2.115100383758545</v>
       </c>
       <c r="D166">
-        <v>1.923640727996826</v>
+        <v>2.041616916656494</v>
       </c>
       <c r="E166">
-        <v>1.969023466110229</v>
+        <v>2.065324783325196</v>
       </c>
       <c r="F166">
-        <v>0</v>
+        <v>3618020</v>
       </c>
       <c r="G166">
-        <v>2.017982013970827</v>
+        <v>2.069254064874328</v>
       </c>
       <c r="H166">
-        <v>2.0359847843647</v>
+        <v>2.075123870372772</v>
       </c>
       <c r="I166">
-        <v>2.059391025702159</v>
+        <v>2.076284567515055</v>
       </c>
       <c r="J166">
-        <v>2.156325168398799</v>
+        <v>2.11632034964827</v>
       </c>
       <c r="L166">
-        <v>43.45979844361393</v>
+        <v>47.9055586565242</v>
       </c>
       <c r="M166">
-        <v>41.53495998616192</v>
+        <v>49.04616089729922</v>
       </c>
     </row>
     <row r="167" spans="1:14">
@@ -6600,37 +6603,37 @@
         <v>179</v>
       </c>
       <c r="B167">
-        <v>1.959494948387146</v>
+        <v>2.065519332885742</v>
       </c>
       <c r="C167">
-        <v>1.994744658470154</v>
+        <v>2.107033252716064</v>
       </c>
       <c r="D167">
-        <v>1.94364583492279</v>
+        <v>2.065519332885742</v>
       </c>
       <c r="E167">
-        <v>1.974872469902038</v>
+        <v>2.097977638244629</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>982288</v>
       </c>
       <c r="G167">
-        <v>2.014062964510028</v>
+        <v>2.071865298817082</v>
       </c>
       <c r="H167">
-        <v>2.026664113998413</v>
+        <v>2.075673246383667</v>
       </c>
       <c r="I167">
-        <v>2.055019736289978</v>
+        <v>2.077748322486877</v>
       </c>
       <c r="J167">
-        <v>2.153921821398842</v>
+        <v>2.116077399828354</v>
       </c>
       <c r="L167">
-        <v>44.67599089552237</v>
+        <v>60.76732726527431</v>
       </c>
       <c r="M167">
-        <v>42.38973183397365</v>
+        <v>57.33271145271499</v>
       </c>
     </row>
     <row r="168" spans="1:14">
@@ -6638,37 +6641,37 @@
         <v>180</v>
       </c>
       <c r="B168">
-        <v>1.971507906913757</v>
+        <v>2.106828451156616</v>
       </c>
       <c r="C168">
-        <v>2.071787595748901</v>
+        <v>2.188325166702271</v>
       </c>
       <c r="D168">
-        <v>1.971495866775513</v>
+        <v>2.059955596923828</v>
       </c>
       <c r="E168">
-        <v>2.051184177398682</v>
+        <v>2.059955596923828</v>
       </c>
       <c r="F168">
-        <v>1955960</v>
+        <v>6964430</v>
       </c>
       <c r="G168">
-        <v>2.017437620227179</v>
+        <v>2.070782598644968</v>
       </c>
       <c r="H168">
-        <v>2.02190752029419</v>
+        <v>2.073831140995026</v>
       </c>
       <c r="I168">
-        <v>2.054140742619832</v>
+        <v>2.076614944140116</v>
       </c>
       <c r="J168">
-        <v>2.152561057902151</v>
+        <v>2.115334064690546</v>
       </c>
       <c r="L168">
-        <v>57.95164090629269</v>
+        <v>45.91664908750423</v>
       </c>
       <c r="M168">
-        <v>52.20740410648164</v>
+        <v>47.62102660626471</v>
       </c>
     </row>
     <row r="169" spans="1:14">
@@ -6676,37 +6679,37 @@
         <v>181</v>
       </c>
       <c r="B169">
-        <v>2.05470609664917</v>
+        <v>2.039860486984253</v>
       </c>
       <c r="C169">
-        <v>2.078457593917847</v>
+        <v>2.065896987915039</v>
       </c>
       <c r="D169">
-        <v>2.021344661712646</v>
+        <v>2.001902103424072</v>
       </c>
       <c r="E169">
-        <v>2.035156488418579</v>
+        <v>2.014475107192993</v>
       </c>
       <c r="F169">
-        <v>301917</v>
+        <v>1096060</v>
       </c>
       <c r="G169">
-        <v>2.019048426426397</v>
+        <v>2.065663735785698</v>
       </c>
       <c r="H169">
-        <v>2.01652911901474</v>
+        <v>2.070153665542603</v>
       </c>
       <c r="I169">
-        <v>2.051896564165751</v>
+        <v>2.074196656545003</v>
       </c>
       <c r="J169">
-        <v>2.151006030491772</v>
+        <v>2.113998184458791</v>
       </c>
       <c r="L169">
-        <v>54.84215278355357</v>
+        <v>34.55326929756404</v>
       </c>
       <c r="M169">
-        <v>50.26973485766145</v>
+        <v>39.09111479134008</v>
       </c>
     </row>
     <row r="170" spans="1:14">
@@ -6714,37 +6717,37 @@
         <v>182</v>
       </c>
       <c r="B170">
-        <v>2.032068967819214</v>
+        <v>2.020657777786255</v>
       </c>
       <c r="C170">
-        <v>2.079241752624512</v>
+        <v>2.052193641662598</v>
       </c>
       <c r="D170">
-        <v>2.031640529632568</v>
+        <v>2.020657777786255</v>
       </c>
       <c r="E170">
-        <v>2.065485000610352</v>
+        <v>2.048556804656982</v>
       </c>
       <c r="F170">
-        <v>72444</v>
+        <v>154913</v>
       </c>
       <c r="G170">
-        <v>2.023269933170392</v>
+        <v>2.064108560228542</v>
       </c>
       <c r="H170">
-        <v>2.012818419933319</v>
+        <v>2.068178033828735</v>
       </c>
       <c r="I170">
-        <v>2.050503357251485</v>
+        <v>2.072670253117879</v>
       </c>
       <c r="J170">
-        <v>2.149873301619171</v>
+        <v>2.113131411216382</v>
       </c>
       <c r="L170">
-        <v>59.4714680627307</v>
+        <v>45.85068069676638</v>
       </c>
       <c r="M170">
-        <v>53.76652049700435</v>
+        <v>46.78368322235161</v>
       </c>
     </row>
     <row r="171" spans="1:14">
@@ -6752,37 +6755,37 @@
         <v>183</v>
       </c>
       <c r="B171">
-        <v>2.079158782958984</v>
+        <v>2.045011043548584</v>
       </c>
       <c r="C171">
-        <v>2.099748134613037</v>
+        <v>2.045011043548584</v>
       </c>
       <c r="D171">
-        <v>2.011630535125732</v>
+        <v>2.006172180175781</v>
       </c>
       <c r="E171">
-        <v>2.030611276626587</v>
+        <v>2.021832227706909</v>
       </c>
       <c r="F171">
-        <v>1669095</v>
+        <v>26534</v>
       </c>
       <c r="G171">
-        <v>2.023937328030046</v>
+        <v>2.06026525727203</v>
       </c>
       <c r="H171">
-        <v>2.007977664470673</v>
+        <v>2.064834487438202</v>
       </c>
       <c r="I171">
-        <v>2.048504996299743</v>
+        <v>2.070879260698954</v>
       </c>
       <c r="J171">
-        <v>2.14829367214907</v>
+        <v>2.111922150507648</v>
       </c>
       <c r="L171">
-        <v>52.50823838691083</v>
+        <v>39.79138450893257</v>
       </c>
       <c r="M171">
-        <v>49.45992946912805</v>
+        <v>42.27501016842046</v>
       </c>
     </row>
     <row r="172" spans="1:14">
@@ -6790,37 +6793,40 @@
         <v>184</v>
       </c>
       <c r="B172">
-        <v>2.030743598937988</v>
+        <v>2.012432098388672</v>
       </c>
       <c r="C172">
-        <v>2.043938159942627</v>
+        <v>2.027587413787842</v>
       </c>
       <c r="D172">
-        <v>1.997100114822388</v>
+        <v>1.958466649055481</v>
       </c>
       <c r="E172">
-        <v>2.030858993530273</v>
+        <v>1.958466649055481</v>
       </c>
       <c r="F172">
-        <v>248508</v>
+        <v>0</v>
       </c>
       <c r="G172">
-        <v>2.024566570348249</v>
+        <v>2.051010838343252</v>
       </c>
       <c r="H172">
-        <v>2.003126108646393</v>
+        <v>2.058625763654709</v>
       </c>
       <c r="I172">
-        <v>2.046322480837504</v>
+        <v>2.066914292176564</v>
       </c>
       <c r="J172">
-        <v>2.146738245942199</v>
+        <v>2.109889627309606</v>
       </c>
       <c r="L172">
-        <v>52.55263236091572</v>
+        <v>29.42039875428906</v>
       </c>
       <c r="M172">
-        <v>49.4908775357381</v>
+        <v>33.92632011005514</v>
+      </c>
+      <c r="N172" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="173" spans="1:14">
@@ -6828,37 +6834,37 @@
         <v>185</v>
       </c>
       <c r="B173">
-        <v>2.034260034561157</v>
+        <v>1.964903950691223</v>
       </c>
       <c r="C173">
-        <v>2.042564630508423</v>
+        <v>1.975461959838867</v>
       </c>
       <c r="D173">
-        <v>2.014495611190796</v>
+        <v>1.959965586662292</v>
       </c>
       <c r="E173">
-        <v>2.042502641677856</v>
+        <v>1.970305442810058</v>
       </c>
       <c r="F173">
-        <v>9931</v>
+        <v>0</v>
       </c>
       <c r="G173">
-        <v>2.026197122287304</v>
+        <v>2.043673984203871</v>
       </c>
       <c r="H173">
-        <v>2.001425790786743</v>
+        <v>2.053773719072342</v>
       </c>
       <c r="I173">
-        <v>2.044518637657165</v>
+        <v>2.063781869411469</v>
       </c>
       <c r="J173">
-        <v>2.145357641912208</v>
+        <v>2.108040830163917</v>
       </c>
       <c r="L173">
-        <v>54.7874922121675</v>
+        <v>33.08607467499587</v>
       </c>
       <c r="M173">
-        <v>51.00942486033158</v>
+        <v>36.45142356886577</v>
       </c>
     </row>
     <row r="174" spans="1:14">
@@ -6866,37 +6872,37 @@
         <v>186</v>
       </c>
       <c r="B174">
-        <v>2.045977115631104</v>
+        <v>1.973046660423279</v>
       </c>
       <c r="C174">
-        <v>2.052926778793335</v>
+        <v>1.980746507644653</v>
       </c>
       <c r="D174">
-        <v>2.004343509674072</v>
+        <v>1.963761687278748</v>
       </c>
       <c r="E174">
-        <v>2.014241218566895</v>
+        <v>1.976816892623901</v>
       </c>
       <c r="F174">
         <v>0</v>
       </c>
       <c r="G174">
-        <v>2.025110221949085</v>
+        <v>2.03759606678751</v>
       </c>
       <c r="H174">
-        <v>1.998048627376556</v>
+        <v>2.048836082220078</v>
       </c>
       <c r="I174">
-        <v>2.041145730018616</v>
+        <v>2.060442618529002</v>
       </c>
       <c r="J174">
-        <v>2.143621000543396</v>
+        <v>2.106302764766036</v>
       </c>
       <c r="L174">
-        <v>48.54395374042598</v>
+        <v>35.16949564893098</v>
       </c>
       <c r="M174">
-        <v>47.2928440762118</v>
+        <v>37.85808709317192</v>
       </c>
     </row>
     <row r="175" spans="1:14">
@@ -6904,37 +6910,37 @@
         <v>187</v>
       </c>
       <c r="B175">
-        <v>2.017696142196656</v>
+        <v>1.979659795761108</v>
       </c>
       <c r="C175">
-        <v>2.026148796081543</v>
+        <v>2.004223585128784</v>
       </c>
       <c r="D175">
-        <v>2.00543737411499</v>
+        <v>1.972965955734253</v>
       </c>
       <c r="E175">
-        <v>2.025964498519897</v>
+        <v>1.997485041618347</v>
       </c>
       <c r="F175">
-        <v>2011</v>
+        <v>0</v>
       </c>
       <c r="G175">
-        <v>2.025187883455522</v>
+        <v>2.03394960995395</v>
       </c>
       <c r="H175">
-        <v>1.997483134269714</v>
+        <v>2.046159827709198</v>
       </c>
       <c r="I175">
-        <v>2.037813862164815</v>
+        <v>2.057633145650228</v>
       </c>
       <c r="J175">
-        <v>2.142062636278184</v>
+        <v>2.104861470419709</v>
       </c>
       <c r="L175">
-        <v>51.14226020532354</v>
+        <v>41.65630135967599</v>
       </c>
       <c r="M175">
-        <v>48.95431215987303</v>
+        <v>42.22928726573248</v>
       </c>
     </row>
     <row r="176" spans="1:14">
@@ -6942,37 +6948,37 @@
         <v>188</v>
       </c>
       <c r="B176">
-        <v>2.022946834564209</v>
+        <v>1.996717572212219</v>
       </c>
       <c r="C176">
-        <v>2.034419775009156</v>
+        <v>2.010668277740479</v>
       </c>
       <c r="D176">
-        <v>2.01439094543457</v>
+        <v>1.991831541061401</v>
       </c>
       <c r="E176">
-        <v>2.025038957595825</v>
+        <v>2.000550270080566</v>
       </c>
       <c r="F176">
         <v>0</v>
       </c>
       <c r="G176">
-        <v>2.025174344741004</v>
+        <v>2.030913306329097</v>
       </c>
       <c r="H176">
-        <v>1.996745538711548</v>
+        <v>2.043065142631531</v>
       </c>
       <c r="I176">
-        <v>2.033853713671367</v>
+        <v>2.054963302612305</v>
       </c>
       <c r="J176">
-        <v>2.14051265377908</v>
+        <v>2.103479865117203</v>
       </c>
       <c r="L176">
-        <v>50.91391627207657</v>
+        <v>42.61430882921404</v>
       </c>
       <c r="M176">
-        <v>48.82345962366927</v>
+        <v>42.87111396876804</v>
       </c>
     </row>
     <row r="177" spans="1:13">
@@ -6980,37 +6986,37 @@
         <v>189</v>
       </c>
       <c r="B177">
-        <v>2.019336462020874</v>
+        <v>2.000563144683838</v>
       </c>
       <c r="C177">
-        <v>2.062963247299194</v>
+        <v>2.033185482025146</v>
       </c>
       <c r="D177">
-        <v>2.013501644134521</v>
+        <v>2.000563144683838</v>
       </c>
       <c r="E177">
-        <v>2.03855562210083</v>
+        <v>2.033072471618652</v>
       </c>
       <c r="F177">
-        <v>110267</v>
+        <v>0</v>
       </c>
       <c r="G177">
-        <v>2.026390824500988</v>
+        <v>2.031109594082693</v>
       </c>
       <c r="H177">
-        <v>1.997858548164368</v>
+        <v>2.041496455669403</v>
       </c>
       <c r="I177">
-        <v>2.029762705167135</v>
+        <v>2.053166047732035</v>
       </c>
       <c r="J177">
-        <v>2.13916222951844</v>
+        <v>2.102547316858944</v>
       </c>
       <c r="L177">
-        <v>54.26859212085161</v>
+        <v>52.01844422493811</v>
       </c>
       <c r="M177">
-        <v>50.88806397235581</v>
+        <v>49.30636194332945</v>
       </c>
     </row>
     <row r="178" spans="1:13">
@@ -7018,37 +7024,37 @@
         <v>190</v>
       </c>
       <c r="B178">
-        <v>2.02576231956482</v>
+        <v>2.02220606803894</v>
       </c>
       <c r="C178">
-        <v>2.07449722290039</v>
+        <v>2.039387226104736</v>
       </c>
       <c r="D178">
-        <v>2.025685548782349</v>
+        <v>2.017001867294312</v>
       </c>
       <c r="E178">
-        <v>2.054064989089966</v>
+        <v>2.021457195281982</v>
       </c>
       <c r="F178">
-        <v>156916</v>
+        <v>40034</v>
       </c>
       <c r="G178">
-        <v>2.02890665764544</v>
+        <v>2.030232103282628</v>
       </c>
       <c r="H178">
-        <v>2.002141118049622</v>
+        <v>2.03836350440979</v>
       </c>
       <c r="I178">
-        <v>2.026687669754028</v>
+        <v>2.050654697418213</v>
       </c>
       <c r="J178">
-        <v>2.138035113751176</v>
+        <v>2.101473275513555</v>
       </c>
       <c r="L178">
-        <v>57.97597064653976</v>
+        <v>48.80492405670832</v>
       </c>
       <c r="M178">
-        <v>53.22009575159561</v>
+        <v>47.25884760750907</v>
       </c>
     </row>
     <row r="179" spans="1:13">
@@ -7056,37 +7062,37 @@
         <v>191</v>
       </c>
       <c r="B179">
-        <v>2.050837516784668</v>
+        <v>2.028030157089233</v>
       </c>
       <c r="C179">
-        <v>2.09424090385437</v>
+        <v>2.032266139984131</v>
       </c>
       <c r="D179">
-        <v>2.050837516784668</v>
+        <v>2.019517183303833</v>
       </c>
       <c r="E179">
-        <v>2.09395694732666</v>
+        <v>2.032266139984131</v>
       </c>
       <c r="F179">
-        <v>183058</v>
+        <v>38177</v>
       </c>
       <c r="G179">
-        <v>2.034820320343733</v>
+        <v>2.030417015710037</v>
       </c>
       <c r="H179">
-        <v>2.005702459812164</v>
+        <v>2.035626268386841</v>
       </c>
       <c r="I179">
-        <v>2.025062084197998</v>
+        <v>2.048796081542969</v>
       </c>
       <c r="J179">
-        <v>2.137451296977342</v>
+        <v>2.100556624711841</v>
       </c>
       <c r="L179">
-        <v>65.96094697973902</v>
+        <v>51.91478859109765</v>
       </c>
       <c r="M179">
-        <v>58.65781523503641</v>
+        <v>49.36604059708191</v>
       </c>
     </row>
     <row r="180" spans="1:13">
@@ -7094,37 +7100,37 @@
         <v>192</v>
       </c>
       <c r="B180">
-        <v>2.091898918151855</v>
+        <v>2.032196760177612</v>
       </c>
       <c r="C180">
-        <v>2.091898918151855</v>
+        <v>2.081819772720337</v>
       </c>
       <c r="D180">
-        <v>2.067183971405029</v>
+        <v>2.022401571273804</v>
       </c>
       <c r="E180">
-        <v>2.087023735046387</v>
+        <v>2.040142297744751</v>
       </c>
       <c r="F180">
-        <v>170827</v>
+        <v>0</v>
       </c>
       <c r="G180">
-        <v>2.039566085316701</v>
+        <v>2.031301132258648</v>
       </c>
       <c r="H180">
-        <v>2.012545675039291</v>
+        <v>2.033886671066284</v>
       </c>
       <c r="I180">
-        <v>2.023306242624919</v>
+        <v>2.047198510169983</v>
       </c>
       <c r="J180">
-        <v>2.13678338224978</v>
+        <v>2.099756434950687</v>
       </c>
       <c r="L180">
-        <v>63.59817265020308</v>
+        <v>54.1956737196976</v>
       </c>
       <c r="M180">
-        <v>57.40879428673574</v>
+        <v>50.90527693438374</v>
       </c>
     </row>
     <row r="181" spans="1:13">
@@ -7132,37 +7138,37 @@
         <v>193</v>
       </c>
       <c r="B181">
-        <v>2.089611530303955</v>
+        <v>2.040079355239868</v>
       </c>
       <c r="C181">
-        <v>2.111782312393188</v>
+        <v>2.042188882827759</v>
       </c>
       <c r="D181">
-        <v>2.082744121551514</v>
+        <v>2.006570100784302</v>
       </c>
       <c r="E181">
-        <v>2.094348907470703</v>
+        <v>2.034745216369629</v>
       </c>
       <c r="F181">
-        <v>112252</v>
+        <v>15127</v>
       </c>
       <c r="G181">
-        <v>2.044546341876156</v>
+        <v>2.031614230814192</v>
       </c>
       <c r="H181">
-        <v>2.021759176254272</v>
+        <v>2.031361198425293</v>
       </c>
       <c r="I181">
-        <v>2.022203660011292</v>
+        <v>2.045399912198385</v>
       </c>
       <c r="J181">
-        <v>2.136221336226216</v>
+        <v>2.098895359207892</v>
       </c>
       <c r="L181">
-        <v>65.0847463329533</v>
+        <v>52.28381313506549</v>
       </c>
       <c r="M181">
-        <v>58.41627166114401</v>
+        <v>49.78836098896023</v>
       </c>
     </row>
     <row r="182" spans="1:13">
@@ -7170,37 +7176,37 @@
         <v>194</v>
       </c>
       <c r="B182">
-        <v>2.093547582626343</v>
+        <v>2.028875827789306</v>
       </c>
       <c r="C182">
-        <v>2.093547582626343</v>
+        <v>2.028875827789306</v>
       </c>
       <c r="D182">
-        <v>2.078906536102295</v>
+        <v>2.028379440307617</v>
       </c>
       <c r="E182">
-        <v>2.082154273986816</v>
+        <v>2.028560161590576</v>
       </c>
       <c r="F182">
-        <v>49802</v>
+        <v>16578</v>
       </c>
       <c r="G182">
-        <v>2.047965244795307</v>
+        <v>2.031336588157499</v>
       </c>
       <c r="H182">
-        <v>2.027536189556122</v>
+        <v>2.028522312641144</v>
       </c>
       <c r="I182">
-        <v>2.020679132143656</v>
+        <v>2.043597213427226</v>
       </c>
       <c r="J182">
-        <v>2.135505216196555</v>
+        <v>2.097963767186471</v>
       </c>
       <c r="L182">
-        <v>60.46052521592497</v>
+        <v>50.00934491749192</v>
       </c>
       <c r="M182">
-        <v>56.03972184910779</v>
+        <v>48.47570451817662</v>
       </c>
     </row>
   </sheetData>
